--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R279"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K122" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L122" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="M122" t="n">
-        <v>1850</v>
+        <v>3750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q122" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K123" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L123" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M123" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q123" t="n">
         <v>10</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="K124" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L124" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M124" t="n">
-        <v>1752</v>
+        <v>1550</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q124" t="n">
         <v>10</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="K125" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L125" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M125" t="n">
-        <v>1500</v>
+        <v>1752</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q125" t="n">
         <v>10</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9425,36 +9425,36 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K126" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L126" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M126" t="n">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q126" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9504,17 +9504,17 @@
         <v>160</v>
       </c>
       <c r="K127" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L127" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M127" t="n">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="Q127" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9569,24 +9569,24 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L128" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="M128" t="n">
-        <v>3250</v>
+        <v>5100</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q128" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K129" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M129" t="n">
-        <v>8781</v>
+        <v>3250</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>488</v>
+        <v>217</v>
       </c>
       <c r="Q129" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,41 +9708,41 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>34000</v>
+        <v>80</v>
       </c>
       <c r="K130" t="n">
-        <v>1700</v>
+        <v>8500</v>
       </c>
       <c r="L130" t="n">
-        <v>1800</v>
+        <v>9000</v>
       </c>
       <c r="M130" t="n">
-        <v>1753</v>
+        <v>8781</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>175</v>
+        <v>488</v>
       </c>
       <c r="Q130" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -9785,36 +9785,36 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K131" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L131" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M131" t="n">
-        <v>4250</v>
+        <v>1753</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q131" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>120</v>
       </c>
       <c r="K132" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L132" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M132" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q132" t="n">
         <v>15</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -9929,36 +9929,36 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>32000</v>
+        <v>120</v>
       </c>
       <c r="K133" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L133" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M133" t="n">
-        <v>1894</v>
+        <v>3250</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Q133" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="K134" t="n">
         <v>1800</v>
       </c>
       <c r="L134" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M134" t="n">
-        <v>1850</v>
+        <v>1894</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q134" t="n">
         <v>10</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K135" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L135" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M135" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q135" t="n">
         <v>10</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="K136" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L136" t="n">
-        <v>6500</v>
+        <v>1600</v>
       </c>
       <c r="M136" t="n">
-        <v>6250</v>
+        <v>1550</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="Q136" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J137" t="n">
         <v>120</v>
       </c>
       <c r="K137" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L137" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M137" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -10289,24 +10289,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J138" t="n">
         <v>120</v>
       </c>
       <c r="K138" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L138" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M138" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="Q138" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K139" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L139" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M139" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q139" t="n">
         <v>15</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K140" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L140" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M140" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="Q140" t="n">
         <v>15</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>120</v>
       </c>
       <c r="K141" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L141" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M141" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q141" t="n">
         <v>15</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J142" t="n">
         <v>120</v>
       </c>
       <c r="K142" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L142" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M142" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q142" t="n">
         <v>15</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J143" t="n">
         <v>120</v>
       </c>
       <c r="K143" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L143" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M143" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q143" t="n">
         <v>15</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J144" t="n">
         <v>120</v>
       </c>
       <c r="K144" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L144" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M144" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q144" t="n">
         <v>15</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L145" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M145" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q145" t="n">
         <v>15</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,36 +10865,36 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>13200</v>
+        <v>120</v>
       </c>
       <c r="K146" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L146" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="M146" t="n">
-        <v>1809</v>
+        <v>3250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="Q146" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="K147" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L147" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M147" t="n">
-        <v>1550</v>
+        <v>1809</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="Q147" t="n">
         <v>10</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="K148" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L148" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M148" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q148" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K149" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L149" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M149" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q149" t="n">
         <v>15</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L150" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M150" t="n">
-        <v>3750</v>
+        <v>2650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="Q150" t="n">
         <v>15</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L151" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M151" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="Q151" t="n">
         <v>15</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L152" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M152" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q152" t="n">
         <v>15</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>120</v>
       </c>
       <c r="K153" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L153" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M153" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q153" t="n">
         <v>15</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
         <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L154" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M154" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q154" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>24000</v>
+        <v>120</v>
       </c>
       <c r="K155" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="L155" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M155" t="n">
-        <v>1950</v>
+        <v>4250</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="Q155" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K156" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L156" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M156" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q156" t="n">
         <v>10</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="K157" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L157" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M157" t="n">
-        <v>1896</v>
+        <v>1650</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q157" t="n">
         <v>10</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11729,24 +11729,24 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>25000</v>
       </c>
       <c r="K158" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L158" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M158" t="n">
-        <v>3900</v>
+        <v>1896</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q158" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L159" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M159" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q159" t="n">
         <v>15</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K160" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L160" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="M160" t="n">
-        <v>1750</v>
+        <v>3100</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="Q160" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="K161" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L161" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M161" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q161" t="n">
         <v>10</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="K162" t="n">
         <v>1500</v>
       </c>
       <c r="L162" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M162" t="n">
-        <v>1617</v>
+        <v>1500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q162" t="n">
         <v>10</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12089,36 +12089,36 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>60000</v>
       </c>
       <c r="K163" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L163" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="M163" t="n">
-        <v>4250</v>
+        <v>1617</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="Q163" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12165,20 +12165,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L164" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M164" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q164" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K165" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L165" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M165" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="Q165" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K166" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L166" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M166" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q166" t="n">
         <v>15</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L167" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M167" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q167" t="n">
         <v>15</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L168" t="n">
         <v>3500</v>
       </c>
-      <c r="L168" t="n">
-        <v>3800</v>
-      </c>
       <c r="M168" t="n">
-        <v>3650</v>
+        <v>3250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="Q168" t="n">
         <v>15</v>
@@ -12528,17 +12528,17 @@
         <v>120</v>
       </c>
       <c r="K169" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="L169" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M169" t="n">
-        <v>4900</v>
+        <v>3650</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="Q169" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K170" t="n">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="L170" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M170" t="n">
-        <v>1907</v>
+        <v>4900</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q170" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="K171" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L171" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M171" t="n">
-        <v>1000</v>
+        <v>1907</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="Q171" t="n">
         <v>10</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="K172" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L172" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M172" t="n">
-        <v>1711</v>
+        <v>1000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="Q172" t="n">
         <v>10</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>45000</v>
       </c>
       <c r="K173" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L173" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M173" t="n">
-        <v>3750</v>
+        <v>1711</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="Q173" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -12881,24 +12881,24 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L174" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M174" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q174" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K175" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="L175" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M175" t="n">
-        <v>4750</v>
+        <v>1750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L176" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M176" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
         <v>120</v>
       </c>
       <c r="K177" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L177" t="n">
         <v>4000</v>
       </c>
-      <c r="L177" t="n">
-        <v>4500</v>
-      </c>
       <c r="M177" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q177" t="n">
         <v>15</v>
@@ -13176,17 +13176,17 @@
         <v>120</v>
       </c>
       <c r="K178" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L178" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M178" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q178" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -13245,32 +13245,32 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K179" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L179" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M179" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L180" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M180" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>26000</v>
+        <v>160</v>
       </c>
       <c r="K181" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L181" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="M181" t="n">
-        <v>1850</v>
+        <v>3250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Q181" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K182" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L182" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M182" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q182" t="n">
         <v>10</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,36 +13529,36 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K183" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L183" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M183" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q183" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L184" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M184" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
         <v>120</v>
       </c>
       <c r="K185" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M185" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13752,17 +13752,17 @@
         <v>120</v>
       </c>
       <c r="K186" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L186" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M186" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q186" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -13817,24 +13817,24 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K187" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L187" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="M187" t="n">
-        <v>1850</v>
+        <v>5250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q187" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K188" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L188" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M188" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q188" t="n">
         <v>10</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="K189" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L189" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M189" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14037,20 +14037,20 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K190" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L190" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M190" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q190" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L191" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M191" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K192" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M192" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q192" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K193" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L193" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M193" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -14321,24 +14321,24 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L194" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M194" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="Q194" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M195" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L196" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L197" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M197" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q197" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -14609,36 +14609,36 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K198" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="L198" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="M198" t="n">
-        <v>1650</v>
+        <v>5750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="Q198" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K199" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L199" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M199" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="Q199" t="n">
         <v>10</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K200" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L200" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M200" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="Q200" t="n">
         <v>10</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K201" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L201" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M201" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q201" t="n">
         <v>10</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -14897,36 +14897,36 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K202" t="n">
-        <v>6500</v>
+        <v>1400</v>
       </c>
       <c r="L202" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="M202" t="n">
-        <v>6750</v>
+        <v>1450</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="Q202" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L203" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M203" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K204" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L204" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M204" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L205" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M205" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
         <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L206" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M206" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
         <v>120</v>
       </c>
       <c r="K207" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L207" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M207" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -15329,36 +15329,36 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K208" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L208" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M208" t="n">
-        <v>1650</v>
+        <v>4250</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="Q208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="K209" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L209" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M209" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q209" t="n">
         <v>10</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="K210" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L210" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M210" t="n">
-        <v>1894</v>
+        <v>1450</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="Q210" t="n">
         <v>10</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="K211" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L211" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M211" t="n">
-        <v>1750</v>
+        <v>1894</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q211" t="n">
         <v>10</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="K212" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L212" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M212" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q212" t="n">
         <v>10</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="K213" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L213" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M213" t="n">
-        <v>4250</v>
+        <v>1500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K214" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L214" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M214" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K215" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L215" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M215" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q215" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L216" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M216" t="n">
-        <v>1896</v>
+        <v>6250</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q216" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,36 +15977,36 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K217" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L217" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M217" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q217" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16049,36 +16049,36 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>28000</v>
+        <v>130</v>
       </c>
       <c r="K218" t="n">
-        <v>1900</v>
+        <v>7500</v>
       </c>
       <c r="L218" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M218" t="n">
-        <v>1950</v>
+        <v>7808</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="Q218" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="K219" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L219" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M219" t="n">
-        <v>1550</v>
+        <v>1950</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="Q219" t="n">
         <v>10</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>60000</v>
+        <v>8000</v>
       </c>
       <c r="K220" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L220" t="n">
         <v>1600</v>
       </c>
-      <c r="L220" t="n">
-        <v>1700</v>
-      </c>
       <c r="M220" t="n">
-        <v>1642</v>
+        <v>1550</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q220" t="n">
         <v>10</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K221" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L221" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M221" t="n">
-        <v>1260</v>
+        <v>1642</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q221" t="n">
         <v>10</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
         <v>25000</v>
       </c>
       <c r="K222" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L222" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M222" t="n">
-        <v>1904</v>
+        <v>1260</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="Q222" t="n">
         <v>10</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K223" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L223" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M223" t="n">
-        <v>4250</v>
+        <v>1904</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K224" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L224" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M224" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q224" t="n">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="K225" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L225" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M225" t="n">
-        <v>1920</v>
+        <v>3500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="Q225" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K226" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L226" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M226" t="n">
-        <v>957</v>
+        <v>1920</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q226" t="n">
         <v>10</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="K227" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="L227" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M227" t="n">
-        <v>4250</v>
+        <v>957</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K228" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L228" t="n">
         <v>4500</v>
       </c>
-      <c r="L228" t="n">
-        <v>5000</v>
-      </c>
       <c r="M228" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16841,36 +16841,36 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>26000</v>
+        <v>120</v>
       </c>
       <c r="K229" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L229" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M229" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K230" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L230" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M230" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q230" t="n">
         <v>10</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K231" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L231" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M231" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L232" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M232" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
         <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L233" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M233" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K234" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L234" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M234" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
         <v>160</v>
       </c>
       <c r="K235" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L235" t="n">
         <v>4000</v>
       </c>
-      <c r="L235" t="n">
-        <v>4500</v>
-      </c>
       <c r="M235" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L236" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M236" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,36 +17417,36 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>43000</v>
+        <v>80</v>
       </c>
       <c r="K237" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L237" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M237" t="n">
-        <v>1642</v>
+        <v>3500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,36 +17489,36 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>43000</v>
       </c>
       <c r="K238" t="n">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="L238" t="n">
-        <v>6500</v>
+        <v>1700</v>
       </c>
       <c r="M238" t="n">
-        <v>6250</v>
+        <v>1642</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="Q238" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L239" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M239" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17628,41 +17628,41 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L240" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M240" t="n">
-        <v>8700</v>
+        <v>5250</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>483</v>
+        <v>210</v>
       </c>
       <c r="Q240" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17700,41 +17700,41 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>25000</v>
+        <v>75</v>
       </c>
       <c r="K241" t="n">
-        <v>1800</v>
+        <v>8500</v>
       </c>
       <c r="L241" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M241" t="n">
-        <v>1896</v>
+        <v>8700</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K242" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L242" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M242" t="n">
-        <v>1036</v>
+        <v>1896</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="Q242" t="n">
         <v>10</v>
@@ -17849,36 +17849,36 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="K243" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="L243" t="n">
-        <v>8500</v>
+        <v>1100</v>
       </c>
       <c r="M243" t="n">
-        <v>8308</v>
+        <v>1036</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="Q243" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,36 +17921,36 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>12000</v>
+        <v>130</v>
       </c>
       <c r="K244" t="n">
-        <v>1700</v>
+        <v>8000</v>
       </c>
       <c r="L244" t="n">
-        <v>1800</v>
+        <v>8500</v>
       </c>
       <c r="M244" t="n">
-        <v>1750</v>
+        <v>8308</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>175</v>
+        <v>462</v>
       </c>
       <c r="Q244" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="K245" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L245" t="n">
         <v>1800</v>
       </c>
-      <c r="L245" t="n">
-        <v>2000</v>
-      </c>
       <c r="M245" t="n">
-        <v>1874</v>
+        <v>1750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q245" t="n">
         <v>10</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="K246" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L246" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M246" t="n">
-        <v>1362</v>
+        <v>1874</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q246" t="n">
         <v>10</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="K247" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L247" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M247" t="n">
-        <v>931</v>
+        <v>1362</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>55000</v>
+        <v>13000</v>
       </c>
       <c r="K248" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L248" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M248" t="n">
-        <v>1591</v>
+        <v>931</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="Q248" t="n">
         <v>10</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>28000</v>
+        <v>55000</v>
       </c>
       <c r="K249" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L249" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M249" t="n">
-        <v>1129</v>
+        <v>1591</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="Q249" t="n">
         <v>10</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>120</v>
+        <v>28000</v>
       </c>
       <c r="K250" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L250" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="M250" t="n">
-        <v>4250</v>
+        <v>1129</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="Q250" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18432,17 +18432,17 @@
         <v>120</v>
       </c>
       <c r="K251" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L251" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M251" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="Q251" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K252" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L252" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M252" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Q252" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K253" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L253" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M253" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L254" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M254" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="K255" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L255" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M255" t="n">
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K256" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L256" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M256" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q256" t="n">
         <v>10</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,36 +18857,36 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K257" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L257" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M257" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
         <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L258" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M258" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,36 +19001,36 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K259" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L259" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M259" t="n">
-        <v>1750</v>
+        <v>3250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K260" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M260" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K261" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L261" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M261" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>46000</v>
+        <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L262" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M262" t="n">
-        <v>1578</v>
+        <v>3250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="Q262" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>46000</v>
       </c>
       <c r="K263" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L263" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M263" t="n">
-        <v>3750</v>
+        <v>1578</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L264" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M264" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q264" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L265" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M265" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="K266" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="L266" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M266" t="n">
-        <v>1650</v>
+        <v>5500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K267" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="L267" t="n">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="M267" t="n">
-        <v>5650</v>
+        <v>1650</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="Q267" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>38000</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L268" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M268" t="n">
-        <v>1916</v>
+        <v>5650</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>38000</v>
       </c>
       <c r="K269" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L269" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M269" t="n">
-        <v>3900</v>
+        <v>1916</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K270" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L270" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M270" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L271" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M271" t="n">
-        <v>1893</v>
+        <v>3250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="K272" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L272" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M272" t="n">
-        <v>1441</v>
+        <v>1893</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="K273" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L273" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M273" t="n">
-        <v>1750</v>
+        <v>1441</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="K274" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L274" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M274" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,36 +20153,36 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K275" t="n">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="L275" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="M275" t="n">
-        <v>6250</v>
+        <v>1450</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q275" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,36 +20225,36 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K276" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K277" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L277" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M277" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="K278" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L278" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="M278" t="n">
-        <v>1850</v>
+        <v>3500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K279" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L279" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M279" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,12 +20467,84 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>7</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E280" t="n">
+        <v>16</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>10</v>
+      </c>
+      <c r="R280" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>45000</v>
+        <v>300</v>
       </c>
       <c r="K195" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L195" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M195" t="n">
-        <v>1711</v>
+        <v>3900</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="Q195" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
         <v>3500</v>
       </c>
       <c r="L196" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M196" t="n">
-        <v>3750</v>
+        <v>3550</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="K197" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L197" t="n">
         <v>1800</v>
       </c>
       <c r="M197" t="n">
-        <v>1750</v>
+        <v>1711</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q197" t="n">
         <v>10</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K198" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L198" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M198" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K199" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M199" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L200" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M200" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L201" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M201" t="n">
-        <v>6250</v>
+        <v>3900</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K202" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L202" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M202" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -14969,36 +14969,36 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K203" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L203" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M203" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>26000</v>
+        <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L204" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="M204" t="n">
-        <v>1850</v>
+        <v>3900</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L205" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M205" t="n">
-        <v>1550</v>
+        <v>3250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -15185,36 +15185,36 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>120</v>
+        <v>26000</v>
       </c>
       <c r="K206" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L206" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M206" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -15257,36 +15257,36 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K207" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L207" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M207" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q207" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J209" t="n">
         <v>120</v>
       </c>
       <c r="K209" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L209" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M209" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q209" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L210" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="M210" t="n">
-        <v>1850</v>
+        <v>4250</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="Q210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L211" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="M211" t="n">
-        <v>1550</v>
+        <v>5250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K212" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L212" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M212" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>160</v>
+        <v>6000</v>
       </c>
       <c r="K213" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L213" t="n">
-        <v>6500</v>
+        <v>1600</v>
       </c>
       <c r="M213" t="n">
-        <v>6250</v>
+        <v>1550</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="Q213" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K214" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L214" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M214" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,11 +15833,11 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K215" t="n">
         <v>6000</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K216" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L216" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M216" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="Q216" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K217" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L217" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M217" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16006,7 +16006,7 @@
         <v>250</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L218" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M218" t="n">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K219" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L219" t="n">
         <v>4000</v>
       </c>
       <c r="M219" t="n">
-        <v>3900</v>
+        <v>3750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
         <v>120</v>
       </c>
       <c r="K220" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L220" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M220" t="n">
-        <v>5750</v>
+        <v>3000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="Q220" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16265,36 +16265,36 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K221" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L221" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M221" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q221" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,36 +16337,36 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K222" t="n">
-        <v>1300</v>
+        <v>5500</v>
       </c>
       <c r="L222" t="n">
-        <v>1400</v>
+        <v>6000</v>
       </c>
       <c r="M222" t="n">
-        <v>1350</v>
+        <v>5750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="Q222" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -16488,13 +16488,13 @@
         <v>12000</v>
       </c>
       <c r="K224" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L224" t="n">
         <v>1400</v>
       </c>
-      <c r="L224" t="n">
-        <v>1500</v>
-      </c>
       <c r="M224" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q224" t="n">
         <v>10</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,36 +16553,36 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K225" t="n">
-        <v>6500</v>
+        <v>1600</v>
       </c>
       <c r="L225" t="n">
-        <v>7000</v>
+        <v>1700</v>
       </c>
       <c r="M225" t="n">
-        <v>6750</v>
+        <v>1650</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="Q225" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K226" t="n">
-        <v>5500</v>
+        <v>1400</v>
       </c>
       <c r="L226" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="M226" t="n">
-        <v>5500</v>
+        <v>1450</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="Q226" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J227" t="n">
         <v>160</v>
       </c>
       <c r="K227" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L227" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M227" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,24 +16769,24 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K228" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L228" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M228" t="n">
-        <v>3250</v>
+        <v>5500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q228" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L229" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M229" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16920,13 +16920,13 @@
         <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L230" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M230" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="L231" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M231" t="n">
-        <v>3350</v>
+        <v>5250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K232" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L232" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M232" t="n">
-        <v>2900</v>
+        <v>4250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="L233" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M233" t="n">
-        <v>3700</v>
+        <v>3350</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K234" t="n">
         <v>2800</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17280,13 +17280,13 @@
         <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="L235" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="M235" t="n">
-        <v>3350</v>
+        <v>3700</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
         <v>2800</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,36 +17417,36 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="L237" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M237" t="n">
-        <v>1650</v>
+        <v>3350</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,36 +17489,36 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>8000</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L238" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M238" t="n">
-        <v>1450</v>
+        <v>2900</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="K239" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L239" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M239" t="n">
-        <v>1894</v>
+        <v>1650</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="Q239" t="n">
         <v>10</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="K240" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L240" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M240" t="n">
-        <v>1750</v>
+        <v>1450</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="Q240" t="n">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="K241" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L241" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M241" t="n">
-        <v>1500</v>
+        <v>1894</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="Q241" t="n">
         <v>10</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K242" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L242" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M242" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q242" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>60</v>
+        <v>8000</v>
       </c>
       <c r="K243" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L243" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M243" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17928,17 +17928,17 @@
         <v>120</v>
       </c>
       <c r="K244" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L244" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M244" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q244" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="K245" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L245" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M245" t="n">
-        <v>1896</v>
+        <v>3500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K246" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L246" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M246" t="n">
-        <v>7808</v>
+        <v>6250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="Q246" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="K247" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L247" t="n">
         <v>2000</v>
       </c>
       <c r="M247" t="n">
-        <v>1950</v>
+        <v>1896</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,36 +18209,36 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
+        <v>130</v>
+      </c>
+      <c r="K248" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L248" t="n">
         <v>8000</v>
       </c>
-      <c r="K248" t="n">
-        <v>1500</v>
-      </c>
-      <c r="L248" t="n">
-        <v>1600</v>
-      </c>
       <c r="M248" t="n">
-        <v>1550</v>
+        <v>7808</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="K249" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L249" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M249" t="n">
-        <v>1642</v>
+        <v>1950</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="Q249" t="n">
         <v>10</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="K250" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L250" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M250" t="n">
-        <v>1260</v>
+        <v>1550</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K251" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L251" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M251" t="n">
-        <v>1904</v>
+        <v>1642</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q251" t="n">
         <v>10</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K252" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="L252" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="M252" t="n">
-        <v>4250</v>
+        <v>1260</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>60</v>
+        <v>25000</v>
       </c>
       <c r="K253" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L253" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M253" t="n">
-        <v>3500</v>
+        <v>1904</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L254" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M254" t="n">
-        <v>1920</v>
+        <v>4250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>14000</v>
+        <v>60</v>
       </c>
       <c r="K255" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="L255" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M255" t="n">
-        <v>957</v>
+        <v>3500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="K256" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L256" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M256" t="n">
-        <v>4250</v>
+        <v>1920</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="K257" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="L257" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="M257" t="n">
-        <v>3650</v>
+        <v>957</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K258" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L258" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M258" t="n">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L259" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M259" t="n">
-        <v>4750</v>
+        <v>3650</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44188</v>
+        <v>44433</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>26000</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L260" t="n">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="M260" t="n">
-        <v>1850</v>
+        <v>3000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q260" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="L261" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="M261" t="n">
-        <v>1550</v>
+        <v>4750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>26000</v>
       </c>
       <c r="K262" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L262" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M262" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K263" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L263" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M263" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L264" t="n">
         <v>4500</v>
       </c>
-      <c r="L264" t="n">
-        <v>5000</v>
-      </c>
       <c r="M264" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L265" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M265" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L266" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M266" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K267" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L267" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M267" t="n">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>43000</v>
+        <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L268" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M268" t="n">
-        <v>1642</v>
+        <v>4250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L269" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M269" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q269" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19793,36 +19793,36 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>43000</v>
       </c>
       <c r="K270" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="L270" t="n">
-        <v>5500</v>
+        <v>1700</v>
       </c>
       <c r="M270" t="n">
-        <v>5250</v>
+        <v>1642</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="Q270" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M271" t="n">
-        <v>8700</v>
+        <v>6250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="Q271" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L272" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M272" t="n">
-        <v>1896</v>
+        <v>5250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q272" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>14000</v>
+        <v>75</v>
       </c>
       <c r="K273" t="n">
-        <v>1000</v>
+        <v>8500</v>
       </c>
       <c r="L273" t="n">
-        <v>1100</v>
+        <v>9000</v>
       </c>
       <c r="M273" t="n">
-        <v>1036</v>
+        <v>8700</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K274" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L274" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M274" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q274" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="K275" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L275" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="M275" t="n">
-        <v>1750</v>
+        <v>1036</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,36 +20225,36 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>19000</v>
+        <v>130</v>
       </c>
       <c r="K276" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="L276" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M276" t="n">
-        <v>1874</v>
+        <v>8308</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K277" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L277" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M277" t="n">
-        <v>1362</v>
+        <v>1750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="Q277" t="n">
         <v>10</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K278" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L278" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M278" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q278" t="n">
         <v>10</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>55000</v>
+        <v>16000</v>
       </c>
       <c r="K279" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L279" t="n">
         <v>1500</v>
       </c>
-      <c r="L279" t="n">
-        <v>1700</v>
-      </c>
       <c r="M279" t="n">
-        <v>1591</v>
+        <v>1362</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K280" t="n">
+        <v>900</v>
+      </c>
+      <c r="L280" t="n">
         <v>1000</v>
       </c>
-      <c r="L280" t="n">
-        <v>1200</v>
-      </c>
       <c r="M280" t="n">
-        <v>1129</v>
+        <v>931</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="Q280" t="n">
         <v>10</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>55000</v>
       </c>
       <c r="K281" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L281" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="M281" t="n">
-        <v>4250</v>
+        <v>1591</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="Q281" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>28000</v>
       </c>
       <c r="K282" t="n">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="L282" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="M282" t="n">
-        <v>5750</v>
+        <v>1129</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="Q282" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L283" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M283" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="Q283" t="n">
         <v>16</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20808,17 +20808,17 @@
         <v>120</v>
       </c>
       <c r="K284" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L284" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M284" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L285" t="n">
         <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="Q285" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>24000</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L286" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M286" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="K287" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L287" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M287" t="n">
-        <v>1550</v>
+        <v>3500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="Q287" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,36 +21089,36 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K288" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L288" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M288" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,36 +21161,36 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K289" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L289" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M289" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,36 +21233,36 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="L290" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M290" t="n">
-        <v>1750</v>
+        <v>3900</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K291" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L291" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M291" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K292" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L292" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="M292" t="n">
-        <v>3250</v>
+        <v>1750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>46000</v>
+        <v>160</v>
       </c>
       <c r="K293" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L293" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M293" t="n">
-        <v>1578</v>
+        <v>3900</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
         <v>120</v>
       </c>
       <c r="K294" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L294" t="n">
         <v>3500</v>
       </c>
-      <c r="L294" t="n">
-        <v>4000</v>
-      </c>
       <c r="M294" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>46000</v>
       </c>
       <c r="K295" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>1700</v>
       </c>
       <c r="M295" t="n">
-        <v>6750</v>
+        <v>1578</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="Q295" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L296" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M296" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q296" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="L297" t="n">
-        <v>1700</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>1650</v>
+        <v>6750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K298" t="n">
         <v>5500</v>
       </c>
       <c r="L298" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M298" t="n">
-        <v>5650</v>
+        <v>5500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>38000</v>
+        <v>12000</v>
       </c>
       <c r="K299" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L299" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M299" t="n">
-        <v>1916</v>
+        <v>1650</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Q299" t="n">
         <v>10</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="M300" t="n">
-        <v>3900</v>
+        <v>5650</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>38000</v>
       </c>
       <c r="K301" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L301" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M301" t="n">
-        <v>3250</v>
+        <v>1916</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>28000</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L302" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M302" t="n">
-        <v>1893</v>
+        <v>3900</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>17000</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L303" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M303" t="n">
-        <v>1441</v>
+        <v>3250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="K304" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L304" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M304" t="n">
-        <v>1750</v>
+        <v>1893</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q304" t="n">
         <v>10</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="K305" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L305" t="n">
         <v>1500</v>
       </c>
       <c r="M305" t="n">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q305" t="n">
         <v>10</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,36 +22385,36 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>160</v>
+        <v>24000</v>
       </c>
       <c r="K306" t="n">
-        <v>6000</v>
+        <v>1700</v>
       </c>
       <c r="L306" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="M306" t="n">
-        <v>6250</v>
+        <v>1750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q306" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,36 +22457,36 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K307" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="L307" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M307" t="n">
-        <v>4250</v>
+        <v>1450</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,36 +22529,36 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K308" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L308" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M308" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,36 +22601,36 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L309" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="M309" t="n">
-        <v>1850</v>
+        <v>4250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,36 +22673,36 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="K310" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L310" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M310" t="n">
-        <v>1550</v>
+        <v>3500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,36 +22745,36 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L311" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M311" t="n">
-        <v>3750</v>
+        <v>1850</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,36 +22817,36 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K312" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L312" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M312" t="n">
-        <v>2900</v>
+        <v>1550</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22899,10 +22899,10 @@
         <v>3500</v>
       </c>
       <c r="L313" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>3650</v>
+        <v>3750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L314" t="n">
         <v>3000</v>
       </c>
       <c r="M314" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,12 +22987,156 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>7</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E315" t="n">
+        <v>16</v>
+      </c>
+      <c r="F315" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>160</v>
+      </c>
+      <c r="K315" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L315" t="n">
+        <v>3800</v>
+      </c>
+      <c r="M315" t="n">
+        <v>3650</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>15</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>7</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E316" t="n">
+        <v>16</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>80</v>
+      </c>
+      <c r="K316" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L316" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M316" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>15</v>
+      </c>
+      <c r="R316" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R325"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>60000</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>150</v>
+        <v>3800</v>
       </c>
       <c r="L182" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="M182" t="n">
-        <v>158</v>
+        <v>3900</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K183" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L183" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M183" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="K184" t="n">
-        <v>5500</v>
+        <v>150</v>
       </c>
       <c r="L184" t="n">
-        <v>5500</v>
+        <v>170</v>
       </c>
       <c r="M184" t="n">
-        <v>5500</v>
+        <v>158</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="Q184" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -13677,32 +13677,32 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>34000</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="L185" t="n">
-        <v>1700</v>
+        <v>7000</v>
       </c>
       <c r="M185" t="n">
-        <v>1647</v>
+        <v>6750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="Q185" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -13745,24 +13745,24 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K186" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L186" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M186" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="Q186" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44277</v>
+        <v>44259</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -13821,32 +13821,32 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>300</v>
+        <v>34000</v>
       </c>
       <c r="K187" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="L187" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="M187" t="n">
-        <v>4250</v>
+        <v>1647</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="Q187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K188" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L188" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M188" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44224</v>
+        <v>44277</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>28000</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L189" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M189" t="n">
-        <v>1907</v>
+        <v>4250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="Q189" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -14033,36 +14033,36 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="L190" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="M190" t="n">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="K191" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L191" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M191" t="n">
-        <v>1750</v>
+        <v>1907</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Q191" t="n">
         <v>10</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K192" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L192" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M192" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="Q192" t="n">
         <v>10</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -14249,36 +14249,36 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K193" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L193" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M193" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -14321,36 +14321,36 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K194" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="L194" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="M194" t="n">
-        <v>5250</v>
+        <v>1450</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="Q194" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
         <v>120</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L195" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M195" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,36 +14465,36 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="L196" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M196" t="n">
-        <v>1650</v>
+        <v>5250</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="Q196" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -14537,36 +14537,36 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="L197" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M197" t="n">
-        <v>1450</v>
+        <v>3250</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="Q197" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K198" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="L198" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="M198" t="n">
-        <v>4750</v>
+        <v>1650</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -14681,36 +14681,36 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K199" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="L199" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M199" t="n">
-        <v>4250</v>
+        <v>1450</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L200" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M200" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -14825,36 +14825,36 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K201" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L201" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="M201" t="n">
-        <v>1850</v>
+        <v>4250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="Q201" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -14897,36 +14897,36 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="K202" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L202" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M202" t="n">
-        <v>1550</v>
+        <v>3500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="Q202" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -14969,36 +14969,36 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K203" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L203" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M203" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,36 +15041,36 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K204" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L204" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M204" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>55000</v>
+        <v>120</v>
       </c>
       <c r="K205" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L205" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M205" t="n">
-        <v>1591</v>
+        <v>4250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>28000</v>
+        <v>60</v>
       </c>
       <c r="K206" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L206" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="M206" t="n">
-        <v>1129</v>
+        <v>3500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="Q206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>12000</v>
+        <v>55000</v>
       </c>
       <c r="K207" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L207" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="M207" t="n">
-        <v>1850</v>
+        <v>1591</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="Q207" t="n">
         <v>10</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="K208" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L208" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="M208" t="n">
-        <v>1550</v>
+        <v>1129</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="Q208" t="n">
         <v>10</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K209" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L209" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M209" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q209" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="K210" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L210" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M210" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q210" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>26000</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L211" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M211" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K212" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="L212" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M212" t="n">
-        <v>1450</v>
+        <v>3250</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>240</v>
+        <v>26000</v>
       </c>
       <c r="K213" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="L213" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M213" t="n">
-        <v>3750</v>
+        <v>1750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K214" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="L214" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M214" t="n">
-        <v>3000</v>
+        <v>1450</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>33000</v>
+        <v>240</v>
       </c>
       <c r="K215" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L215" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M215" t="n">
-        <v>1909</v>
+        <v>3750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="Q215" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L216" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M216" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>200</v>
+        <v>33000</v>
       </c>
       <c r="K217" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L217" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M217" t="n">
-        <v>3000</v>
+        <v>1909</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K218" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L218" t="n">
         <v>3800</v>
       </c>
-      <c r="L218" t="n">
-        <v>4000</v>
-      </c>
       <c r="M218" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K219" t="n">
         <v>3000</v>
       </c>
       <c r="L219" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M219" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,36 +16193,36 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>60000</v>
+        <v>160</v>
       </c>
       <c r="K220" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L220" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M220" t="n">
-        <v>1617</v>
+        <v>3900</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="Q220" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K221" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L221" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M221" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,36 +16337,36 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>80</v>
+        <v>60000</v>
       </c>
       <c r="K222" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L222" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M222" t="n">
-        <v>3500</v>
+        <v>1617</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="Q222" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
         <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M223" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q223" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -16481,24 +16481,24 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J224" t="n">
         <v>80</v>
       </c>
       <c r="K224" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L224" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M224" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q224" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,36 +16553,36 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K225" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L225" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>3350</v>
+        <v>6750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="Q225" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>80</v>
       </c>
       <c r="K226" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="L226" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="M226" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="Q226" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16704,13 +16704,13 @@
         <v>160</v>
       </c>
       <c r="K227" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="L227" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M227" t="n">
-        <v>3800</v>
+        <v>3350</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K228" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="L228" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="M228" t="n">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="Q228" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="L229" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M229" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K230" t="n">
-        <v>3500</v>
+        <v>5800</v>
       </c>
       <c r="L230" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="M230" t="n">
-        <v>3650</v>
+        <v>5900</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K231" t="n">
         <v>3000</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>28000</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L232" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="M232" t="n">
-        <v>1907</v>
+        <v>3650</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L233" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="M233" t="n">
-        <v>1033</v>
+        <v>3000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="K234" t="n">
         <v>1800</v>
       </c>
       <c r="L234" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M234" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="K235" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L235" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="M235" t="n">
-        <v>1550</v>
+        <v>1033</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="Q235" t="n">
         <v>10</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>26000</v>
       </c>
       <c r="K236" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L236" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M236" t="n">
-        <v>3900</v>
+        <v>1850</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="K237" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L237" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M237" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17496,13 +17496,13 @@
         <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="L238" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M238" t="n">
-        <v>3350</v>
+        <v>3900</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L239" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M239" t="n">
-        <v>2900</v>
+        <v>3250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17633,36 +17633,36 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>34000</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="L240" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M240" t="n">
-        <v>1647</v>
+        <v>3350</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L241" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M241" t="n">
-        <v>5773</v>
+        <v>2900</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="Q241" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>34000</v>
       </c>
       <c r="K242" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L242" t="n">
-        <v>9500</v>
+        <v>1700</v>
       </c>
       <c r="M242" t="n">
-        <v>9278</v>
+        <v>1647</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="Q242" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K243" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L243" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M243" t="n">
-        <v>4250</v>
+        <v>5773</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K244" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L244" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M244" t="n">
-        <v>3500</v>
+        <v>9278</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>11000</v>
+        <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L245" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M245" t="n">
-        <v>1909</v>
+        <v>4250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>18000</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L246" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M246" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="K247" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L247" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M247" t="n">
-        <v>954</v>
+        <v>1909</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="K248" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L248" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M248" t="n">
-        <v>1642</v>
+        <v>1400</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q248" t="n">
         <v>10</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K249" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="L249" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M249" t="n">
-        <v>3900</v>
+        <v>954</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,36 +18353,36 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>120</v>
+        <v>43000</v>
       </c>
       <c r="K250" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L250" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M250" t="n">
-        <v>2900</v>
+        <v>1642</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K251" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L251" t="n">
         <v>4000</v>
       </c>
-      <c r="L251" t="n">
-        <v>4500</v>
-      </c>
       <c r="M251" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18504,13 +18504,13 @@
         <v>120</v>
       </c>
       <c r="K252" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L252" t="n">
         <v>3000</v>
       </c>
-      <c r="L252" t="n">
-        <v>3500</v>
-      </c>
       <c r="M252" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18576,13 +18576,13 @@
         <v>120</v>
       </c>
       <c r="K253" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L253" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M253" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L254" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M254" t="n">
-        <v>2900</v>
+        <v>3250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L255" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M255" t="n">
-        <v>1650</v>
+        <v>3750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L256" t="n">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="M256" t="n">
-        <v>1850</v>
+        <v>2900</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K257" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L257" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M257" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q257" t="n">
         <v>10</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K258" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="L258" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M258" t="n">
-        <v>3350</v>
+        <v>1850</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>160</v>
+        <v>6000</v>
       </c>
       <c r="K259" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L259" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M259" t="n">
-        <v>2900</v>
+        <v>1550</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19080,13 +19080,13 @@
         <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M260" t="n">
-        <v>3900</v>
+        <v>3350</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
         <v>160</v>
       </c>
       <c r="K261" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L261" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M261" t="n">
-        <v>5750</v>
+        <v>2900</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="Q261" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L262" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M262" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K263" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="L263" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>1752</v>
+        <v>5750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>8000</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L264" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="M264" t="n">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="Q264" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>160</v>
+        <v>25000</v>
       </c>
       <c r="K265" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="L265" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="M265" t="n">
-        <v>3650</v>
+        <v>1752</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="K266" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L266" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M266" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K267" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L267" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="M267" t="n">
-        <v>4250</v>
+        <v>3650</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K268" t="n">
         <v>3000</v>
       </c>
       <c r="L268" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M268" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K270" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L270" t="n">
         <v>3500</v>
       </c>
       <c r="M270" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19860,29 +19860,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M271" t="n">
-        <v>8781</v>
+        <v>4250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>488</v>
+        <v>283</v>
       </c>
       <c r="Q271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19937,36 +19937,36 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>34000</v>
+        <v>60</v>
       </c>
       <c r="K272" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L272" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M272" t="n">
-        <v>1753</v>
+        <v>3500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q272" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20004,29 +20004,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K273" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L273" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M273" t="n">
-        <v>3750</v>
+        <v>8781</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>250</v>
+        <v>488</v>
       </c>
       <c r="Q273" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44294</v>
+        <v>44257</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K274" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="L274" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="M274" t="n">
-        <v>5250</v>
+        <v>1753</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
         <v>120</v>
       </c>
       <c r="K275" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L275" t="n">
         <v>4000</v>
       </c>
-      <c r="L275" t="n">
-        <v>4500</v>
-      </c>
       <c r="M275" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20232,13 +20232,13 @@
         <v>120</v>
       </c>
       <c r="K276" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L276" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M276" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K277" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L277" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M277" t="n">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20373,20 +20373,20 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K278" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L278" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M278" t="n">
-        <v>6250</v>
+        <v>3900</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q278" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K279" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L279" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M279" t="n">
-        <v>4250</v>
+        <v>3000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L281" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M281" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20664,29 +20664,29 @@
         <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L282" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M282" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K283" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L283" t="n">
         <v>3500</v>
       </c>
       <c r="M283" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20873,36 +20873,36 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
         <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L285" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q285" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L286" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M286" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L287" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M287" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L288" t="n">
-        <v>5200</v>
+        <v>3200</v>
       </c>
       <c r="M288" t="n">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q288" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K289" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L289" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M289" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L290" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="M290" t="n">
-        <v>4750</v>
+        <v>5100</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K291" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L291" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M291" t="n">
-        <v>3900</v>
+        <v>2650</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21384,13 +21384,13 @@
         <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L292" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M292" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21456,13 +21456,13 @@
         <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L293" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M293" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L294" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M294" t="n">
-        <v>1896</v>
+        <v>3900</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,36 +21593,36 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L295" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M295" t="n">
-        <v>7808</v>
+        <v>3250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="Q295" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="K296" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L296" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M296" t="n">
-        <v>3900</v>
+        <v>1896</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,36 +21737,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K297" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L297" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M297" t="n">
-        <v>3550</v>
+        <v>7808</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,36 +21809,36 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K298" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L298" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M298" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,36 +21881,36 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L299" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="M299" t="n">
-        <v>1350</v>
+        <v>3550</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,36 +21953,36 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K300" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M300" t="n">
-        <v>3900</v>
+        <v>1650</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,36 +22025,36 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K301" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L301" t="n">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="M301" t="n">
-        <v>5750</v>
+        <v>1350</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="Q301" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
         <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L302" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M302" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1220</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L303" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="M303" t="n">
-        <v>3650</v>
+        <v>5750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
         <v>160</v>
       </c>
       <c r="K304" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="M304" t="n">
-        <v>5750</v>
+        <v>3100</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="Q304" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>650</v>
+        <v>1220</v>
       </c>
       <c r="K305" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L305" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M305" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K306" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L306" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q306" t="n">
         <v>25</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K307" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L307" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M307" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K308" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L308" t="n">
         <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
         <v>160</v>
       </c>
       <c r="K309" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L309" t="n">
         <v>4000</v>
       </c>
       <c r="M309" t="n">
-        <v>3900</v>
+        <v>3750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,36 +22673,36 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K310" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,36 +22745,36 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L311" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M311" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,36 +22817,36 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K312" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L312" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M312" t="n">
-        <v>3900</v>
+        <v>1850</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,36 +22889,36 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K313" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L313" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M313" t="n">
-        <v>3250</v>
+        <v>1650</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K314" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L314" t="n">
         <v>4000</v>
       </c>
       <c r="M314" t="n">
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23043,10 +23043,10 @@
         <v>3000</v>
       </c>
       <c r="L315" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M315" t="n">
-        <v>3100</v>
+        <v>3250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,36 +23105,36 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>38000</v>
+        <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L316" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M316" t="n">
-        <v>1916</v>
+        <v>3750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K317" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L317" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M317" t="n">
-        <v>4750</v>
+        <v>3100</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>12000</v>
+        <v>38000</v>
       </c>
       <c r="K318" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L318" t="n">
         <v>2000</v>
       </c>
       <c r="M318" t="n">
-        <v>1950</v>
+        <v>1916</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q318" t="n">
         <v>10</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,36 +23321,36 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>8000</v>
+        <v>160</v>
       </c>
       <c r="K319" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L319" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="M319" t="n">
-        <v>1700</v>
+        <v>4750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23400,13 +23400,13 @@
         <v>12000</v>
       </c>
       <c r="K320" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L320" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M320" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q320" t="n">
         <v>10</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K321" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L321" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M321" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q321" t="n">
         <v>10</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K322" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L322" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M322" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="K323" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L323" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M323" t="n">
-        <v>5750</v>
+        <v>1500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q323" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K324" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L324" t="n">
         <v>4000</v>
       </c>
-      <c r="L324" t="n">
-        <v>4500</v>
-      </c>
       <c r="M324" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,38 +23753,182 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
         <v>120</v>
       </c>
       <c r="K325" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L325" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M325" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>25</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>7</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E326" t="n">
+        <v>16</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>120</v>
+      </c>
+      <c r="K326" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L326" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M326" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>15</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>7</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E327" t="n">
+        <v>16</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>120</v>
+      </c>
+      <c r="K327" t="n">
         <v>3000</v>
       </c>
-      <c r="L325" t="n">
+      <c r="L327" t="n">
         <v>3500</v>
       </c>
-      <c r="M325" t="n">
+      <c r="M327" t="n">
         <v>3250</v>
       </c>
-      <c r="N325" t="inlineStr">
+      <c r="N327" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="O325" t="inlineStr">
+      <c r="O327" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P325" t="n">
+      <c r="P327" t="n">
         <v>217</v>
       </c>
-      <c r="Q325" t="n">
+      <c r="Q327" t="n">
         <v>15</v>
       </c>
-      <c r="R325" t="inlineStr">
+      <c r="R327" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,36 +23393,36 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="L320" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M320" t="n">
-        <v>1950</v>
+        <v>5750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,36 +23465,36 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="K321" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L321" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M321" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q321" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23544,13 +23544,13 @@
         <v>12000</v>
       </c>
       <c r="K322" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L322" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M322" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q322" t="n">
         <v>10</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K323" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L323" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M323" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q323" t="n">
         <v>10</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K324" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L324" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M324" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="K325" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L325" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M325" t="n">
-        <v>5750</v>
+        <v>1500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q325" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K326" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L326" t="n">
         <v>4000</v>
       </c>
-      <c r="L326" t="n">
-        <v>4500</v>
-      </c>
       <c r="M326" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,38 +23897,182 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
         <v>120</v>
       </c>
       <c r="K327" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L327" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M327" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>25</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>7</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E328" t="n">
+        <v>16</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>120</v>
+      </c>
+      <c r="K328" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L328" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M328" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>15</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>7</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E329" t="n">
+        <v>16</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>120</v>
+      </c>
+      <c r="K329" t="n">
         <v>3000</v>
       </c>
-      <c r="L327" t="n">
+      <c r="L329" t="n">
         <v>3500</v>
       </c>
-      <c r="M327" t="n">
+      <c r="M329" t="n">
         <v>3250</v>
       </c>
-      <c r="N327" t="inlineStr">
+      <c r="N329" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="O327" t="inlineStr">
+      <c r="O329" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P327" t="n">
+      <c r="P329" t="n">
         <v>217</v>
       </c>
-      <c r="Q327" t="n">
+      <c r="Q329" t="n">
         <v>15</v>
       </c>
-      <c r="R327" t="inlineStr">
+      <c r="R329" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R329"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K296" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L296" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M296" t="n">
-        <v>1896</v>
+        <v>3900</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,36 +21737,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K297" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L297" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M297" t="n">
-        <v>7808</v>
+        <v>5750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>434</v>
+        <v>230</v>
       </c>
       <c r="Q297" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="K298" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L298" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M298" t="n">
-        <v>3900</v>
+        <v>1896</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,36 +21881,36 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K299" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L299" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M299" t="n">
-        <v>3550</v>
+        <v>7808</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,36 +21953,36 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K300" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L300" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M300" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q300" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,36 +22025,36 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L301" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="M301" t="n">
-        <v>1350</v>
+        <v>3550</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,36 +22097,36 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K302" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="L302" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M302" t="n">
-        <v>3900</v>
+        <v>1650</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,36 +22169,36 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K303" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L303" t="n">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="M303" t="n">
-        <v>5750</v>
+        <v>1350</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="Q303" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
         <v>160</v>
       </c>
       <c r="K304" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L304" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M304" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1220</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L305" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="M305" t="n">
-        <v>3650</v>
+        <v>5750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
         <v>160</v>
       </c>
       <c r="K306" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L306" t="n">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="M306" t="n">
-        <v>5750</v>
+        <v>3100</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="Q306" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>650</v>
+        <v>1220</v>
       </c>
       <c r="K307" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L307" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M307" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K308" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L308" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M308" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q308" t="n">
         <v>25</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K309" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L309" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M309" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K310" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L310" t="n">
         <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
         <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L311" t="n">
         <v>4000</v>
       </c>
       <c r="M311" t="n">
-        <v>3900</v>
+        <v>3750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,36 +22817,36 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K312" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L312" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M312" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,36 +22889,36 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L313" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,36 +22961,36 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K314" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L314" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M314" t="n">
-        <v>3900</v>
+        <v>1850</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,36 +23033,36 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K315" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L315" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M315" t="n">
-        <v>3250</v>
+        <v>1650</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K316" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L316" t="n">
         <v>4000</v>
       </c>
       <c r="M316" t="n">
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23187,10 +23187,10 @@
         <v>3000</v>
       </c>
       <c r="L317" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M317" t="n">
-        <v>3100</v>
+        <v>3250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,36 +23249,36 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>38000</v>
+        <v>300</v>
       </c>
       <c r="K318" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L318" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M318" t="n">
-        <v>1916</v>
+        <v>3750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="Q318" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K319" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L319" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M319" t="n">
-        <v>4750</v>
+        <v>3100</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>300</v>
+        <v>38000</v>
       </c>
       <c r="K320" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="L320" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M320" t="n">
-        <v>5750</v>
+        <v>1916</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="Q320" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K321" t="n">
         <v>4500</v>
       </c>
       <c r="L321" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M321" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="Q321" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,36 +23537,36 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K322" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="L322" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M322" t="n">
-        <v>1950</v>
+        <v>5750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,36 +23609,36 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="K323" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L323" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M323" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q323" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23688,13 +23688,13 @@
         <v>12000</v>
       </c>
       <c r="K324" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L324" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M324" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q324" t="n">
         <v>10</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K325" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L325" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M325" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q325" t="n">
         <v>10</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K326" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M326" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="K327" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L327" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M327" t="n">
-        <v>5750</v>
+        <v>1500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q327" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K328" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L328" t="n">
         <v>4000</v>
       </c>
-      <c r="L328" t="n">
-        <v>4500</v>
-      </c>
       <c r="M328" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,38 +24041,182 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J329" t="n">
         <v>120</v>
       </c>
       <c r="K329" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L329" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M329" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>25</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>7</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E330" t="n">
+        <v>16</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>120</v>
+      </c>
+      <c r="K330" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L330" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M330" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>15</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>7</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E331" t="n">
+        <v>16</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>120</v>
+      </c>
+      <c r="K331" t="n">
         <v>3000</v>
       </c>
-      <c r="L329" t="n">
+      <c r="L331" t="n">
         <v>3500</v>
       </c>
-      <c r="M329" t="n">
+      <c r="M331" t="n">
         <v>3250</v>
       </c>
-      <c r="N329" t="inlineStr">
+      <c r="N331" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="O329" t="inlineStr">
+      <c r="O331" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P329" t="n">
+      <c r="P331" t="n">
         <v>217</v>
       </c>
-      <c r="Q329" t="n">
+      <c r="Q331" t="n">
         <v>15</v>
       </c>
-      <c r="R329" t="inlineStr">
+      <c r="R331" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R331"/>
+  <dimension ref="A1:R333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K215" t="n">
         <v>3500</v>
       </c>
       <c r="L215" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M215" t="n">
-        <v>3750</v>
+        <v>3550</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L216" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M216" t="n">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q216" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>33000</v>
+        <v>240</v>
       </c>
       <c r="K217" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L217" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M217" t="n">
-        <v>1909</v>
+        <v>3750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="Q217" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K218" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L218" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M218" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>200</v>
+        <v>33000</v>
       </c>
       <c r="K219" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L219" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M219" t="n">
-        <v>3000</v>
+        <v>1909</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="Q219" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L220" t="n">
         <v>3800</v>
       </c>
-      <c r="L220" t="n">
-        <v>4000</v>
-      </c>
       <c r="M220" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
         <v>3000</v>
       </c>
       <c r="L221" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M221" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,36 +16337,36 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>60000</v>
+        <v>160</v>
       </c>
       <c r="K222" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L222" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M222" t="n">
-        <v>1617</v>
+        <v>3900</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="Q222" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K223" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L223" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M223" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q223" t="n">
         <v>15</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -16481,36 +16481,36 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>80</v>
+        <v>60000</v>
       </c>
       <c r="K224" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L224" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M224" t="n">
-        <v>3500</v>
+        <v>1617</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
         <v>120</v>
       </c>
       <c r="K225" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L225" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M225" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q225" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>80</v>
       </c>
       <c r="K226" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L226" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M226" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q226" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K227" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L227" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M227" t="n">
-        <v>3350</v>
+        <v>6750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J228" t="n">
         <v>80</v>
       </c>
       <c r="K228" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="L228" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="M228" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="Q228" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16848,13 +16848,13 @@
         <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="L229" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M229" t="n">
-        <v>3800</v>
+        <v>3350</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16913,36 +16913,36 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K230" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="L230" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="M230" t="n">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="Q230" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K231" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="L231" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M231" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K232" t="n">
-        <v>3500</v>
+        <v>5800</v>
       </c>
       <c r="L232" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>3650</v>
+        <v>5900</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
         <v>3000</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>28000</v>
+        <v>160</v>
       </c>
       <c r="K234" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L234" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="M234" t="n">
-        <v>1907</v>
+        <v>3650</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="Q234" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K235" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L235" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="M235" t="n">
-        <v>1033</v>
+        <v>3000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="Q235" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="K236" t="n">
         <v>1800</v>
       </c>
       <c r="L236" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M236" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q236" t="n">
         <v>10</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="K237" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L237" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="M237" t="n">
-        <v>1550</v>
+        <v>1033</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="Q237" t="n">
         <v>10</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>26000</v>
       </c>
       <c r="K238" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L238" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M238" t="n">
-        <v>3900</v>
+        <v>1850</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="K239" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L239" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M239" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q239" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17640,13 +17640,13 @@
         <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="L240" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M240" t="n">
-        <v>3350</v>
+        <v>3900</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K241" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M241" t="n">
-        <v>2900</v>
+        <v>3250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,36 +17777,36 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>34000</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="L242" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M242" t="n">
-        <v>1647</v>
+        <v>3350</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K243" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L243" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M243" t="n">
-        <v>5773</v>
+        <v>2900</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="Q243" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>90</v>
+        <v>34000</v>
       </c>
       <c r="K244" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L244" t="n">
-        <v>9500</v>
+        <v>1700</v>
       </c>
       <c r="M244" t="n">
-        <v>9278</v>
+        <v>1647</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="Q244" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K245" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L245" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M245" t="n">
-        <v>4250</v>
+        <v>5773</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="Q245" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K246" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L246" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M246" t="n">
-        <v>3500</v>
+        <v>9278</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>11000</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L247" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M247" t="n">
-        <v>1909</v>
+        <v>4250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>18000</v>
+        <v>80</v>
       </c>
       <c r="K248" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L248" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M248" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="K249" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L249" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M249" t="n">
-        <v>954</v>
+        <v>1909</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="Q249" t="n">
         <v>10</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="K250" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L250" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M250" t="n">
-        <v>1642</v>
+        <v>1400</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K251" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="L251" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M251" t="n">
-        <v>3900</v>
+        <v>954</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,36 +18497,36 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>120</v>
+        <v>43000</v>
       </c>
       <c r="K252" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L252" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M252" t="n">
-        <v>2900</v>
+        <v>1642</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K253" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L253" t="n">
         <v>4000</v>
       </c>
-      <c r="L253" t="n">
-        <v>4500</v>
-      </c>
       <c r="M253" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18648,13 +18648,13 @@
         <v>120</v>
       </c>
       <c r="K254" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L254" t="n">
         <v>3000</v>
       </c>
-      <c r="L254" t="n">
-        <v>3500</v>
-      </c>
       <c r="M254" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18720,13 +18720,13 @@
         <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L255" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M255" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L256" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M256" t="n">
-        <v>2900</v>
+        <v>3250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L257" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M257" t="n">
-        <v>1650</v>
+        <v>3750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L258" t="n">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="M258" t="n">
-        <v>1850</v>
+        <v>2900</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K259" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L259" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M259" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q259" t="n">
         <v>10</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K260" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="L260" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M260" t="n">
-        <v>3350</v>
+        <v>1850</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>6000</v>
       </c>
       <c r="K261" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L261" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M261" t="n">
-        <v>2900</v>
+        <v>1550</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19224,13 +19224,13 @@
         <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="L262" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M262" t="n">
-        <v>3900</v>
+        <v>3350</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>160</v>
       </c>
       <c r="K263" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M263" t="n">
-        <v>5750</v>
+        <v>2900</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="Q263" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L264" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M264" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K265" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="L265" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M265" t="n">
-        <v>1752</v>
+        <v>5750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>8000</v>
+        <v>160</v>
       </c>
       <c r="K266" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L266" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="M266" t="n">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>160</v>
+        <v>25000</v>
       </c>
       <c r="K267" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="L267" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="M267" t="n">
-        <v>3650</v>
+        <v>1752</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="K268" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L268" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M268" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K269" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L269" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="M269" t="n">
-        <v>4250</v>
+        <v>3650</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K270" t="n">
         <v>3000</v>
       </c>
       <c r="L270" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M270" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L272" t="n">
         <v>3500</v>
       </c>
       <c r="M272" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20004,29 +20004,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K273" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L273" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M273" t="n">
-        <v>8781</v>
+        <v>4250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>488</v>
+        <v>283</v>
       </c>
       <c r="Q273" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>34000</v>
+        <v>60</v>
       </c>
       <c r="K274" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L274" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M274" t="n">
-        <v>1753</v>
+        <v>3500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q274" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20148,29 +20148,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K275" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L275" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>3750</v>
+        <v>8781</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>250</v>
+        <v>488</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44294</v>
+        <v>44257</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,36 +20225,36 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K276" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="L276" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="M276" t="n">
-        <v>5250</v>
+        <v>1753</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J277" t="n">
         <v>120</v>
       </c>
       <c r="K277" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L277" t="n">
         <v>4000</v>
       </c>
-      <c r="L277" t="n">
-        <v>4500</v>
-      </c>
       <c r="M277" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20376,13 +20376,13 @@
         <v>120</v>
       </c>
       <c r="K278" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M278" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L279" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M279" t="n">
-        <v>3000</v>
+        <v>4250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K280" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L280" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M280" t="n">
-        <v>6250</v>
+        <v>3900</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q280" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K281" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L281" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M281" t="n">
-        <v>4250</v>
+        <v>3000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L283" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M283" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20808,29 +20808,29 @@
         <v>160</v>
       </c>
       <c r="K284" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L284" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M284" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K285" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L285" t="n">
         <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P286" t="n">
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,36 +21017,36 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
         <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L287" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M287" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q287" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L288" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M288" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K289" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L289" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M289" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>5200</v>
+        <v>3200</v>
       </c>
       <c r="M290" t="n">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q290" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K291" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L291" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M291" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21381,20 +21381,20 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L292" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="M292" t="n">
-        <v>4750</v>
+        <v>5100</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K293" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L293" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M293" t="n">
-        <v>3900</v>
+        <v>2650</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21528,13 +21528,13 @@
         <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L294" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M294" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21600,13 +21600,13 @@
         <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L295" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M295" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
         <v>3800</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L297" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M297" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q297" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K298" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L298" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M298" t="n">
-        <v>1896</v>
+        <v>3900</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,36 +21881,36 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L299" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>7808</v>
+        <v>5750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>434</v>
+        <v>230</v>
       </c>
       <c r="Q299" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="K300" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M300" t="n">
-        <v>3900</v>
+        <v>1896</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,36 +22025,36 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K301" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L301" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M301" t="n">
-        <v>3550</v>
+        <v>7808</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,36 +22097,36 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K302" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L302" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M302" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,36 +22169,36 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L303" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="M303" t="n">
-        <v>1350</v>
+        <v>3550</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,36 +22241,36 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K304" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="L304" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M304" t="n">
-        <v>3900</v>
+        <v>1650</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,36 +22313,36 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K305" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L305" t="n">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="M305" t="n">
-        <v>5750</v>
+        <v>1350</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="Q305" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
         <v>160</v>
       </c>
       <c r="K306" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L306" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M306" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1220</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L307" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="M307" t="n">
-        <v>3650</v>
+        <v>5750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>160</v>
       </c>
       <c r="K308" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L308" t="n">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="M308" t="n">
-        <v>5750</v>
+        <v>3100</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="Q308" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>650</v>
+        <v>1220</v>
       </c>
       <c r="K309" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L309" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M309" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K310" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L310" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M310" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q310" t="n">
         <v>25</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L311" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M311" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K312" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L312" t="n">
         <v>5000</v>
       </c>
       <c r="M312" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
         <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L313" t="n">
         <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>3900</v>
+        <v>3750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,36 +22961,36 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L314" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M314" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q314" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,36 +23033,36 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L315" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M315" t="n">
-        <v>1650</v>
+        <v>3900</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,36 +23105,36 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K316" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L316" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M316" t="n">
-        <v>3900</v>
+        <v>1850</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,36 +23177,36 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K317" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L317" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M317" t="n">
-        <v>3250</v>
+        <v>1650</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K318" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L318" t="n">
         <v>4000</v>
       </c>
       <c r="M318" t="n">
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23331,10 +23331,10 @@
         <v>3000</v>
       </c>
       <c r="L319" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M319" t="n">
-        <v>3100</v>
+        <v>3250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,36 +23393,36 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>38000</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L320" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M320" t="n">
-        <v>1916</v>
+        <v>3750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L321" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M321" t="n">
-        <v>4750</v>
+        <v>3100</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>300</v>
+        <v>38000</v>
       </c>
       <c r="K322" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="L322" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M322" t="n">
-        <v>5750</v>
+        <v>1916</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="Q322" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K323" t="n">
         <v>4500</v>
       </c>
       <c r="L323" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M323" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="Q323" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,36 +23681,36 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K324" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="L324" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M324" t="n">
-        <v>1950</v>
+        <v>5750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q324" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,36 +23753,36 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="K325" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L325" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M325" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q325" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23832,13 +23832,13 @@
         <v>12000</v>
       </c>
       <c r="K326" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L326" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M326" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q326" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K327" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L327" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M327" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q327" t="n">
         <v>10</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K328" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L328" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M328" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="K329" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L329" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M329" t="n">
-        <v>5750</v>
+        <v>1500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K330" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L330" t="n">
         <v>4000</v>
       </c>
-      <c r="L330" t="n">
-        <v>4500</v>
-      </c>
       <c r="M330" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,38 +24185,182 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
         <v>120</v>
       </c>
       <c r="K331" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L331" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M331" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>25</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>7</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E332" t="n">
+        <v>16</v>
+      </c>
+      <c r="F332" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>120</v>
+      </c>
+      <c r="K332" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M332" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>15</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>7</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E333" t="n">
+        <v>16</v>
+      </c>
+      <c r="F333" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>120</v>
+      </c>
+      <c r="K333" t="n">
         <v>3000</v>
       </c>
-      <c r="L331" t="n">
+      <c r="L333" t="n">
         <v>3500</v>
       </c>
-      <c r="M331" t="n">
+      <c r="M333" t="n">
         <v>3250</v>
       </c>
-      <c r="N331" t="inlineStr">
+      <c r="N333" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="O331" t="inlineStr">
+      <c r="O333" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P331" t="n">
+      <c r="P333" t="n">
         <v>217</v>
       </c>
-      <c r="Q331" t="n">
+      <c r="Q333" t="n">
         <v>15</v>
       </c>
-      <c r="R331" t="inlineStr">
+      <c r="R333" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K225" t="n">
         <v>3500</v>
       </c>
       <c r="L225" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M225" t="n">
-        <v>3750</v>
+        <v>3550</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K226" t="n">
         <v>2800</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K227" t="n">
         <v>3500</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K228" t="n">
         <v>2800</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16841,36 +16841,36 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>22000</v>
+        <v>120</v>
       </c>
       <c r="K229" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L229" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M229" t="n">
-        <v>1891</v>
+        <v>3750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16913,36 +16913,36 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="K230" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L230" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M230" t="n">
-        <v>1447</v>
+        <v>2900</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K231" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L231" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M231" t="n">
-        <v>1055</v>
+        <v>1891</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="Q231" t="n">
         <v>10</v>
@@ -17057,36 +17057,36 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>150</v>
+        <v>17000</v>
       </c>
       <c r="K232" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="M232" t="n">
-        <v>7800</v>
+        <v>1447</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="Q232" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17129,36 +17129,36 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>11000</v>
       </c>
       <c r="K233" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="L233" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="M233" t="n">
-        <v>3900</v>
+        <v>1055</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="Q233" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17201,36 +17201,36 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K234" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="L234" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M234" t="n">
-        <v>2900</v>
+        <v>7800</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>24000</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="L235" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M235" t="n">
-        <v>1950</v>
+        <v>3900</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="Q235" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L236" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M236" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="K237" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L237" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M237" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q237" t="n">
         <v>10</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K238" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L238" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M238" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q238" t="n">
         <v>10</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17561,11 +17561,11 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="K239" t="n">
         <v>1600</v>
@@ -17574,7 +17574,7 @@
         <v>1700</v>
       </c>
       <c r="M239" t="n">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q239" t="n">
         <v>10</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="K240" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L240" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M240" t="n">
-        <v>1260</v>
+        <v>1450</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q240" t="n">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K241" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="L241" t="n">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="M241" t="n">
-        <v>5650</v>
+        <v>1642</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="Q241" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J242" t="n">
         <v>25000</v>
       </c>
       <c r="K242" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L242" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M242" t="n">
-        <v>1920</v>
+        <v>1260</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="Q242" t="n">
         <v>10</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>14000</v>
+        <v>120</v>
       </c>
       <c r="K243" t="n">
-        <v>900</v>
+        <v>5500</v>
       </c>
       <c r="L243" t="n">
-        <v>1000</v>
+        <v>5800</v>
       </c>
       <c r="M243" t="n">
-        <v>957</v>
+        <v>5650</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,36 +17921,36 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L244" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M244" t="n">
-        <v>7250</v>
+        <v>1920</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="Q244" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="K245" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="L245" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M245" t="n">
-        <v>3900</v>
+        <v>957</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="Q245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K246" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L246" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M246" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>46000</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L247" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M247" t="n">
-        <v>1578</v>
+        <v>3900</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>45000</v>
+        <v>300</v>
       </c>
       <c r="K248" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="L248" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M248" t="n">
-        <v>1711</v>
+        <v>5750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="K249" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="L249" t="n">
-        <v>170</v>
+        <v>1700</v>
       </c>
       <c r="M249" t="n">
-        <v>158</v>
+        <v>1578</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18310,7 +18310,7 @@
         <v>158</v>
       </c>
       <c r="Q249" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>160</v>
+        <v>45000</v>
       </c>
       <c r="K250" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="L250" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M250" t="n">
-        <v>4750</v>
+        <v>1711</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K251" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="L251" t="n">
-        <v>4000</v>
+        <v>170</v>
       </c>
       <c r="M251" t="n">
-        <v>3750</v>
+        <v>158</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L252" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M252" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
         <v>120</v>
       </c>
       <c r="K253" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L253" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M253" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18598,7 +18598,7 @@
         <v>250</v>
       </c>
       <c r="Q253" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K254" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L254" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="M254" t="n">
-        <v>5250</v>
+        <v>1850</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="Q254" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18720,17 +18720,17 @@
         <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L255" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M255" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18792,17 +18792,17 @@
         <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L256" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M256" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18864,17 +18864,17 @@
         <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L257" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M257" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Q257" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18933,20 +18933,20 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L258" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M258" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="Q258" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,36 +19001,36 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K259" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="L259" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M259" t="n">
-        <v>1647</v>
+        <v>5250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L260" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="M260" t="n">
-        <v>1850</v>
+        <v>4250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="Q260" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>6000</v>
+        <v>34000</v>
       </c>
       <c r="K261" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L261" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M261" t="n">
-        <v>1550</v>
+        <v>1647</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q261" t="n">
         <v>10</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K262" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L262" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M262" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q262" t="n">
         <v>10</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K263" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L263" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M263" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q263" t="n">
         <v>10</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19368,13 +19368,13 @@
         <v>16000</v>
       </c>
       <c r="K264" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L264" t="n">
         <v>1700</v>
       </c>
-      <c r="L264" t="n">
-        <v>1800</v>
-      </c>
       <c r="M264" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q264" t="n">
         <v>10</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K265" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L265" t="n">
         <v>1400</v>
       </c>
-      <c r="L265" t="n">
-        <v>1500</v>
-      </c>
       <c r="M265" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q265" t="n">
         <v>10</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19512,13 +19512,13 @@
         <v>16000</v>
       </c>
       <c r="K266" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L266" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M266" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q266" t="n">
         <v>10</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K267" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L267" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M267" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q267" t="n">
         <v>10</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K268" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L268" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M268" t="n">
-        <v>1908</v>
+        <v>1550</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K269" t="n">
         <v>1300</v>
       </c>
       <c r="L269" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M269" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="K270" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L270" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M270" t="n">
-        <v>945</v>
+        <v>1908</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q270" t="n">
         <v>10</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K271" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L271" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M271" t="n">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K272" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L272" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M272" t="n">
-        <v>1550</v>
+        <v>945</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20009,36 +20009,36 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K273" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L273" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M273" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K274" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L274" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M274" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L275" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M275" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K276" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L276" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M276" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K277" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L277" t="n">
         <v>3800</v>
       </c>
-      <c r="L277" t="n">
-        <v>4000</v>
-      </c>
       <c r="M277" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K278" t="n">
         <v>3000</v>
       </c>
       <c r="L278" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M278" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20448,13 +20448,13 @@
         <v>160</v>
       </c>
       <c r="K279" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L279" t="n">
         <v>4000</v>
       </c>
-      <c r="L279" t="n">
-        <v>4500</v>
-      </c>
       <c r="M279" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K280" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L280" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M280" t="n">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20592,13 +20592,13 @@
         <v>160</v>
       </c>
       <c r="K281" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L281" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M281" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K282" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L282" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M282" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L283" t="n">
         <v>4000</v>
       </c>
-      <c r="L283" t="n">
-        <v>4500</v>
-      </c>
       <c r="M283" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K284" t="n">
         <v>3000</v>
       </c>
       <c r="L284" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M284" t="n">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20873,11 +20873,11 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
         <v>4000</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M286" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q286" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L287" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M287" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Q287" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K288" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L288" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K289" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M289" t="n">
-        <v>3550</v>
+        <v>6000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K290" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L290" t="n">
         <v>4000</v>
       </c>
-      <c r="L290" t="n">
-        <v>4500</v>
-      </c>
       <c r="M290" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L291" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M291" t="n">
-        <v>3250</v>
+        <v>3550</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L292" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M292" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q292" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L293" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M293" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q293" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K294" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L294" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M294" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K295" t="n">
         <v>5500</v>
       </c>
       <c r="L295" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M295" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21660,41 +21660,41 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>8500</v>
+        <v>3800</v>
       </c>
       <c r="L296" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M296" t="n">
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="Q296" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L297" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M297" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>14000</v>
+        <v>75</v>
       </c>
       <c r="K298" t="n">
-        <v>1000</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>1100</v>
+        <v>9000</v>
       </c>
       <c r="M298" t="n">
-        <v>1036</v>
+        <v>8700</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21881,36 +21881,36 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L299" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M299" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q299" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K300" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L300" t="n">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="M300" t="n">
-        <v>4250</v>
+        <v>1036</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,36 +22025,36 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K301" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M301" t="n">
-        <v>3250</v>
+        <v>8308</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22248,13 +22248,13 @@
         <v>120</v>
       </c>
       <c r="K304" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L304" t="n">
         <v>4500</v>
       </c>
-      <c r="L304" t="n">
-        <v>5000</v>
-      </c>
       <c r="M304" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K305" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L305" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M305" t="n">
-        <v>1907</v>
+        <v>3250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K306" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L306" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="M306" t="n">
-        <v>1033</v>
+        <v>4750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="K307" t="n">
         <v>1800</v>
       </c>
       <c r="L307" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M307" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q307" t="n">
         <v>10</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K308" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L308" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="M308" t="n">
-        <v>1650</v>
+        <v>1033</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="Q308" t="n">
         <v>10</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,36 +22601,36 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K309" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L309" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M309" t="n">
-        <v>3750</v>
+        <v>1850</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="K310" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L310" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M310" t="n">
-        <v>1928</v>
+        <v>1650</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="Q310" t="n">
         <v>10</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="K311" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L311" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M311" t="n">
-        <v>1454</v>
+        <v>3750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="K312" t="n">
         <v>1800</v>
@@ -22830,7 +22830,7 @@
         <v>2000</v>
       </c>
       <c r="M312" t="n">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="K313" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L313" t="n">
         <v>1500</v>
       </c>
       <c r="M313" t="n">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q313" t="n">
         <v>10</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="K314" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L314" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M314" t="n">
-        <v>931</v>
+        <v>1867</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q314" t="n">
         <v>10</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K315" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L315" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M315" t="n">
-        <v>3250</v>
+        <v>1356</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K316" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L316" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M316" t="n">
-        <v>2650</v>
+        <v>931</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K317" t="n">
         <v>3000</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K318" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L318" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="M318" t="n">
-        <v>5100</v>
+        <v>2650</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q318" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K319" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L319" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M319" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,36 +23393,36 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K320" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="L320" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="M320" t="n">
-        <v>1753</v>
+        <v>5100</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K321" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L321" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M321" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q321" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K322" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L322" t="n">
         <v>1800</v>
       </c>
-      <c r="L322" t="n">
-        <v>1900</v>
-      </c>
       <c r="M322" t="n">
-        <v>1850</v>
+        <v>1753</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q322" t="n">
         <v>10</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K323" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L323" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M323" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q323" t="n">
         <v>10</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K324" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L324" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M324" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q324" t="n">
         <v>10</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K325" t="n">
         <v>1500</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K326" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M326" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
         <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L328" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M328" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q328" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K329" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L329" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M329" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K330" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L330" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M330" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K331" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L331" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M331" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>19000</v>
+        <v>240</v>
       </c>
       <c r="K332" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L332" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M332" t="n">
-        <v>1874</v>
+        <v>3750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="Q332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L333" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M333" t="n">
-        <v>1362</v>
+        <v>3000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K334" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L334" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M334" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q334" t="n">
         <v>10</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="K335" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L335" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M335" t="n">
-        <v>3500</v>
+        <v>1362</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K336" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L336" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M336" t="n">
-        <v>2900</v>
+        <v>931</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q336" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K337" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L337" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M337" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,12 +24643,156 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>7</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E338" t="n">
+        <v>16</v>
+      </c>
+      <c r="F338" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>300</v>
+      </c>
+      <c r="K338" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L338" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M338" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>15</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>7</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E339" t="n">
+        <v>16</v>
+      </c>
+      <c r="F339" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>120</v>
+      </c>
+      <c r="K339" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L339" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M339" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P339" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>15</v>
+      </c>
+      <c r="R339" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K229" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L229" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M229" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K230" t="n">
         <v>2800</v>
       </c>
       <c r="L230" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M230" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16985,36 +16985,36 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>22000</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L231" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M231" t="n">
-        <v>1891</v>
+        <v>3750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q231" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17057,36 +17057,36 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L232" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M232" t="n">
-        <v>1447</v>
+        <v>2900</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K233" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L233" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M233" t="n">
-        <v>1055</v>
+        <v>1891</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="Q233" t="n">
         <v>10</v>
@@ -17201,36 +17201,36 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>150</v>
+        <v>17000</v>
       </c>
       <c r="K234" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="L234" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="M234" t="n">
-        <v>7800</v>
+        <v>1447</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="Q234" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,36 +17273,36 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>160</v>
+        <v>11000</v>
       </c>
       <c r="K235" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="L235" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="M235" t="n">
-        <v>3900</v>
+        <v>1055</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17345,36 +17345,36 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K236" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="L236" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>2900</v>
+        <v>7800</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>24000</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="L237" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M237" t="n">
-        <v>1950</v>
+        <v>3900</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L238" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M238" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="K239" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L239" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M239" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q239" t="n">
         <v>10</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K240" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L240" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M240" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q240" t="n">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,11 +17705,11 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="K241" t="n">
         <v>1600</v>
@@ -17718,7 +17718,7 @@
         <v>1700</v>
       </c>
       <c r="M241" t="n">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q241" t="n">
         <v>10</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="K242" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L242" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M242" t="n">
-        <v>1260</v>
+        <v>1450</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q242" t="n">
         <v>10</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K243" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="L243" t="n">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="M243" t="n">
-        <v>5650</v>
+        <v>1642</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="Q243" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J244" t="n">
         <v>25000</v>
       </c>
       <c r="K244" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L244" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M244" t="n">
-        <v>1920</v>
+        <v>1260</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>14000</v>
+        <v>120</v>
       </c>
       <c r="K245" t="n">
-        <v>900</v>
+        <v>5500</v>
       </c>
       <c r="L245" t="n">
-        <v>1000</v>
+        <v>5800</v>
       </c>
       <c r="M245" t="n">
-        <v>957</v>
+        <v>5650</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K246" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L246" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M246" t="n">
-        <v>7250</v>
+        <v>1920</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="Q246" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="K247" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="L247" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M247" t="n">
-        <v>3900</v>
+        <v>957</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M248" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>46000</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L249" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M249" t="n">
-        <v>1578</v>
+        <v>3900</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>45000</v>
+        <v>300</v>
       </c>
       <c r="K250" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="L250" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M250" t="n">
-        <v>1711</v>
+        <v>5750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="Q250" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="K251" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="L251" t="n">
-        <v>170</v>
+        <v>1700</v>
       </c>
       <c r="M251" t="n">
-        <v>158</v>
+        <v>1578</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18454,7 +18454,7 @@
         <v>158</v>
       </c>
       <c r="Q251" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>45000</v>
       </c>
       <c r="K252" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="L252" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M252" t="n">
-        <v>4750</v>
+        <v>1711</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K253" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="L253" t="n">
-        <v>4000</v>
+        <v>170</v>
       </c>
       <c r="M253" t="n">
-        <v>3750</v>
+        <v>158</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L254" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M254" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
         <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L255" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M255" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18742,7 +18742,7 @@
         <v>250</v>
       </c>
       <c r="Q255" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K256" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L256" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="M256" t="n">
-        <v>5250</v>
+        <v>1850</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="Q256" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18864,17 +18864,17 @@
         <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L257" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M257" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18936,17 +18936,17 @@
         <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L258" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M258" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19008,17 +19008,17 @@
         <v>120</v>
       </c>
       <c r="K259" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L259" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M259" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Q259" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19077,20 +19077,20 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L260" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M260" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="Q260" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="L261" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M261" t="n">
-        <v>1647</v>
+        <v>5250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L262" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="M262" t="n">
-        <v>1850</v>
+        <v>4250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="Q262" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>6000</v>
+        <v>34000</v>
       </c>
       <c r="K263" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L263" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M263" t="n">
-        <v>1550</v>
+        <v>1647</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q263" t="n">
         <v>10</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K264" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L264" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M264" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q264" t="n">
         <v>10</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K265" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L265" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M265" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q265" t="n">
         <v>10</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19512,13 +19512,13 @@
         <v>16000</v>
       </c>
       <c r="K266" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L266" t="n">
         <v>1700</v>
       </c>
-      <c r="L266" t="n">
-        <v>1800</v>
-      </c>
       <c r="M266" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q266" t="n">
         <v>10</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K267" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L267" t="n">
         <v>1400</v>
       </c>
-      <c r="L267" t="n">
-        <v>1500</v>
-      </c>
       <c r="M267" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q267" t="n">
         <v>10</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19656,13 +19656,13 @@
         <v>16000</v>
       </c>
       <c r="K268" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L268" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M268" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K269" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L269" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M269" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K270" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L270" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M270" t="n">
-        <v>1908</v>
+        <v>1550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q270" t="n">
         <v>10</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K271" t="n">
         <v>1300</v>
       </c>
       <c r="L271" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M271" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="K272" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L272" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M272" t="n">
-        <v>945</v>
+        <v>1908</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K273" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L273" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M273" t="n">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K274" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L274" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M274" t="n">
-        <v>1550</v>
+        <v>945</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,36 +20153,36 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K275" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L275" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M275" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,36 +20225,36 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K276" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L276" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M276" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K277" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L277" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M277" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K278" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L278" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M278" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K279" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L279" t="n">
         <v>3800</v>
       </c>
-      <c r="L279" t="n">
-        <v>4000</v>
-      </c>
       <c r="M279" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K280" t="n">
         <v>3000</v>
       </c>
       <c r="L280" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M280" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20592,13 +20592,13 @@
         <v>160</v>
       </c>
       <c r="K281" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L281" t="n">
         <v>4000</v>
       </c>
-      <c r="L281" t="n">
-        <v>4500</v>
-      </c>
       <c r="M281" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K282" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L282" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M282" t="n">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20736,13 +20736,13 @@
         <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L283" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M283" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K284" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L284" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M284" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K285" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L285" t="n">
         <v>4000</v>
       </c>
-      <c r="L285" t="n">
-        <v>4500</v>
-      </c>
       <c r="M285" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K286" t="n">
         <v>3000</v>
       </c>
       <c r="L286" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M286" t="n">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,11 +21017,11 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
         <v>4000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>120</v>
       </c>
       <c r="K288" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L288" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M288" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q288" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M289" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Q289" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L290" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M290" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L291" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M291" t="n">
-        <v>3550</v>
+        <v>6000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K292" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L292" t="n">
         <v>4000</v>
       </c>
-      <c r="L292" t="n">
-        <v>4500</v>
-      </c>
       <c r="M292" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K293" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L293" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M293" t="n">
-        <v>3250</v>
+        <v>3550</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L294" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M294" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q294" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L295" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M295" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q295" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L296" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M296" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
         <v>5500</v>
       </c>
       <c r="L297" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M297" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q297" t="n">
         <v>25</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21804,41 +21804,41 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>8500</v>
+        <v>3800</v>
       </c>
       <c r="L298" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M298" t="n">
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="Q298" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K299" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L299" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21948,41 +21948,41 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>14000</v>
+        <v>75</v>
       </c>
       <c r="K300" t="n">
-        <v>1000</v>
+        <v>8500</v>
       </c>
       <c r="L300" t="n">
-        <v>1100</v>
+        <v>9000</v>
       </c>
       <c r="M300" t="n">
-        <v>1036</v>
+        <v>8700</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="Q300" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22025,36 +22025,36 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K301" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L301" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M301" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q301" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>1036</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,36 +22169,36 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K303" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M303" t="n">
-        <v>3250</v>
+        <v>8308</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22392,13 +22392,13 @@
         <v>120</v>
       </c>
       <c r="K306" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L306" t="n">
         <v>4500</v>
       </c>
-      <c r="L306" t="n">
-        <v>5000</v>
-      </c>
       <c r="M306" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L307" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M307" t="n">
-        <v>1907</v>
+        <v>3250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Q307" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L308" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>1033</v>
+        <v>4750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="K309" t="n">
         <v>1800</v>
       </c>
       <c r="L309" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M309" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q309" t="n">
         <v>10</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K310" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L310" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="M310" t="n">
-        <v>1650</v>
+        <v>1033</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="Q310" t="n">
         <v>10</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,36 +22745,36 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L311" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M311" t="n">
-        <v>3750</v>
+        <v>1850</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="K312" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L312" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M312" t="n">
-        <v>1928</v>
+        <v>1650</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L313" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>1454</v>
+        <v>3750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="K314" t="n">
         <v>1800</v>
@@ -22974,7 +22974,7 @@
         <v>2000</v>
       </c>
       <c r="M314" t="n">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q314" t="n">
         <v>10</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="K315" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L315" t="n">
         <v>1500</v>
       </c>
       <c r="M315" t="n">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q315" t="n">
         <v>10</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="K316" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L316" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M316" t="n">
-        <v>931</v>
+        <v>1867</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,24 +23177,24 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K317" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L317" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M317" t="n">
-        <v>3250</v>
+        <v>1356</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K318" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L318" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M318" t="n">
-        <v>2650</v>
+        <v>931</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
         <v>3000</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K320" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L320" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="M320" t="n">
-        <v>5100</v>
+        <v>2650</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q320" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K321" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L321" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M321" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,36 +23537,36 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="L322" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="M322" t="n">
-        <v>1753</v>
+        <v>5100</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K323" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L323" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M323" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K324" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L324" t="n">
         <v>1800</v>
       </c>
-      <c r="L324" t="n">
-        <v>1900</v>
-      </c>
       <c r="M324" t="n">
-        <v>1850</v>
+        <v>1753</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q324" t="n">
         <v>10</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K325" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L325" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M325" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q325" t="n">
         <v>10</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K326" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L326" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M326" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q326" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K327" t="n">
         <v>1500</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K328" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L328" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M328" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K329" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M329" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J330" t="n">
         <v>160</v>
       </c>
       <c r="K330" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L330" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M330" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q330" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K331" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L331" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M331" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q331" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K332" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L332" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M332" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q332" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K333" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L333" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M333" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q333" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>19000</v>
+        <v>240</v>
       </c>
       <c r="K334" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L334" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M334" t="n">
-        <v>1874</v>
+        <v>3750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="Q334" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K335" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L335" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M335" t="n">
-        <v>1362</v>
+        <v>3000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q335" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K336" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L336" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M336" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q336" t="n">
         <v>10</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="K337" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L337" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M337" t="n">
-        <v>3500</v>
+        <v>1362</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="Q337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K338" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L338" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M338" t="n">
-        <v>2900</v>
+        <v>931</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K339" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L339" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M339" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,12 +24787,156 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q339" t="n">
         <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>7</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E340" t="n">
+        <v>16</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>300</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L340" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M340" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>15</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>7</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E341" t="n">
+        <v>16</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>120</v>
+      </c>
+      <c r="K341" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L341" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M341" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>15</v>
+      </c>
+      <c r="R341" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L313" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M313" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L314" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M314" t="n">
-        <v>1928</v>
+        <v>3750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q314" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K315" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L315" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M315" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q315" t="n">
         <v>10</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="K316" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L316" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M316" t="n">
-        <v>1867</v>
+        <v>1454</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="K317" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L317" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M317" t="n">
-        <v>1356</v>
+        <v>1867</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q317" t="n">
         <v>10</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="K318" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L318" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M318" t="n">
-        <v>931</v>
+        <v>1356</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q318" t="n">
         <v>10</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K319" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="L319" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M319" t="n">
-        <v>3250</v>
+        <v>931</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L320" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M320" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K321" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L321" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M321" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23541,20 +23541,20 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K322" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L322" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M322" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q322" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K323" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L323" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M323" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q323" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,36 +23681,36 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>34000</v>
+        <v>300</v>
       </c>
       <c r="K324" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L324" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M324" t="n">
-        <v>1753</v>
+        <v>2650</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K325" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L325" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M325" t="n">
-        <v>1650</v>
+        <v>1753</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q325" t="n">
         <v>10</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23832,13 +23832,13 @@
         <v>12000</v>
       </c>
       <c r="K326" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L326" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="M326" t="n">
-        <v>1850</v>
+        <v>1650</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q326" t="n">
         <v>10</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K327" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L327" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M327" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q327" t="n">
         <v>10</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K328" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L328" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M328" t="n">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q328" t="n">
         <v>10</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K329" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L329" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M329" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q329" t="n">
         <v>10</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K330" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L330" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M330" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K331" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L331" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M331" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K332" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L332" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M332" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q332" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K333" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L333" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M333" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K334" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L334" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M334" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q334" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K335" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L335" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M335" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>19000</v>
+        <v>120</v>
       </c>
       <c r="K336" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L336" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M336" t="n">
-        <v>1874</v>
+        <v>3000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="K337" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L337" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M337" t="n">
-        <v>1362</v>
+        <v>1874</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q337" t="n">
         <v>10</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="K338" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L338" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M338" t="n">
-        <v>931</v>
+        <v>1362</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q338" t="n">
         <v>10</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="K339" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="L339" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M339" t="n">
-        <v>3500</v>
+        <v>931</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K340" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L340" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M340" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q340" t="n">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K341" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L341" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M341" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,12 +24931,84 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>7</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E342" t="n">
+        <v>16</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>120</v>
+      </c>
+      <c r="K342" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L342" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M342" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>15</v>
+      </c>
+      <c r="R342" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L264" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M264" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q264" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="L265" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M265" t="n">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K266" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L266" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M266" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q266" t="n">
         <v>10</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K267" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L267" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M267" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q267" t="n">
         <v>10</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19656,13 +19656,13 @@
         <v>16000</v>
       </c>
       <c r="K268" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L268" t="n">
         <v>1700</v>
       </c>
-      <c r="L268" t="n">
-        <v>1800</v>
-      </c>
       <c r="M268" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K269" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L269" t="n">
         <v>1400</v>
       </c>
-      <c r="L269" t="n">
-        <v>1500</v>
-      </c>
       <c r="M269" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19800,13 +19800,13 @@
         <v>16000</v>
       </c>
       <c r="K270" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L270" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M270" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q270" t="n">
         <v>10</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K271" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L271" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M271" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K272" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L272" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M272" t="n">
-        <v>1908</v>
+        <v>1550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K273" t="n">
         <v>1300</v>
       </c>
       <c r="L273" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M273" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="K274" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L274" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M274" t="n">
-        <v>945</v>
+        <v>1908</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K275" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L275" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M275" t="n">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K276" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L276" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M276" t="n">
-        <v>1550</v>
+        <v>945</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="Q276" t="n">
         <v>10</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,36 +20297,36 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K277" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L277" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M277" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K278" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L278" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M278" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L279" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M279" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K280" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L280" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M280" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L281" t="n">
         <v>3800</v>
       </c>
-      <c r="L281" t="n">
-        <v>4000</v>
-      </c>
       <c r="M281" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K282" t="n">
         <v>3000</v>
       </c>
       <c r="L282" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M282" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20736,13 +20736,13 @@
         <v>160</v>
       </c>
       <c r="K283" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L283" t="n">
         <v>4000</v>
       </c>
-      <c r="L283" t="n">
-        <v>4500</v>
-      </c>
       <c r="M283" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L284" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M284" t="n">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20880,13 +20880,13 @@
         <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L285" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M285" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K286" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L286" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M286" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L287" t="n">
         <v>4000</v>
       </c>
-      <c r="L287" t="n">
-        <v>4500</v>
-      </c>
       <c r="M287" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
         <v>3000</v>
       </c>
       <c r="L288" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M288" t="n">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,11 +21161,11 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K289" t="n">
         <v>4000</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
         <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M290" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q290" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K291" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L291" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M291" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Q291" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L292" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M292" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q292" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K293" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M293" t="n">
-        <v>3550</v>
+        <v>6000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K294" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L294" t="n">
         <v>4000</v>
       </c>
-      <c r="L294" t="n">
-        <v>4500</v>
-      </c>
       <c r="M294" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K295" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L295" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M295" t="n">
-        <v>3250</v>
+        <v>3550</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L296" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M296" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q296" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L297" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M297" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q297" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K298" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L298" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K299" t="n">
         <v>5500</v>
       </c>
       <c r="L299" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M299" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q299" t="n">
         <v>25</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21948,41 +21948,41 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>8500</v>
+        <v>3800</v>
       </c>
       <c r="L300" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M300" t="n">
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="Q300" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L301" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M301" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22092,41 +22092,41 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>14000</v>
+        <v>75</v>
       </c>
       <c r="K302" t="n">
-        <v>1000</v>
+        <v>8500</v>
       </c>
       <c r="L302" t="n">
-        <v>1100</v>
+        <v>9000</v>
       </c>
       <c r="M302" t="n">
-        <v>1036</v>
+        <v>8700</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22169,36 +22169,36 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K303" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L303" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M303" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q303" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K304" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L304" t="n">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="M304" t="n">
-        <v>4250</v>
+        <v>1036</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,36 +22313,36 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K305" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M305" t="n">
-        <v>3250</v>
+        <v>8308</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22536,13 +22536,13 @@
         <v>120</v>
       </c>
       <c r="K308" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L308" t="n">
         <v>4500</v>
       </c>
-      <c r="L308" t="n">
-        <v>5000</v>
-      </c>
       <c r="M308" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L309" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M309" t="n">
-        <v>1907</v>
+        <v>3250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K310" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>1033</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="K311" t="n">
         <v>1800</v>
       </c>
       <c r="L311" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M311" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q311" t="n">
         <v>10</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K312" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L312" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="M312" t="n">
-        <v>1650</v>
+        <v>1033</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,36 +22889,36 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="K313" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L313" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M313" t="n">
-        <v>3100</v>
+        <v>1850</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,36 +22961,36 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K314" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L314" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M314" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L315" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M315" t="n">
-        <v>1928</v>
+        <v>3100</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="K316" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L316" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M316" t="n">
-        <v>1454</v>
+        <v>3750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="K317" t="n">
         <v>1800</v>
@@ -23190,7 +23190,7 @@
         <v>2000</v>
       </c>
       <c r="M317" t="n">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q317" t="n">
         <v>10</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="K318" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L318" t="n">
         <v>1500</v>
       </c>
       <c r="M318" t="n">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q318" t="n">
         <v>10</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="K319" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L319" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M319" t="n">
-        <v>931</v>
+        <v>1867</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q319" t="n">
         <v>10</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K320" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L320" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M320" t="n">
-        <v>3250</v>
+        <v>1356</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K321" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L321" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M321" t="n">
-        <v>2650</v>
+        <v>931</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K322" t="n">
         <v>3000</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K323" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L323" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="M323" t="n">
-        <v>5100</v>
+        <v>2650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q323" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K324" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L324" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M324" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,36 +23753,36 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K325" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="L325" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="M325" t="n">
-        <v>1753</v>
+        <v>5100</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Q325" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K326" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L326" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M326" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K327" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L327" t="n">
         <v>1800</v>
       </c>
-      <c r="L327" t="n">
-        <v>1900</v>
-      </c>
       <c r="M327" t="n">
-        <v>1850</v>
+        <v>1753</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q327" t="n">
         <v>10</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K328" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L328" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M328" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q328" t="n">
         <v>10</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K329" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L329" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M329" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q329" t="n">
         <v>10</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K330" t="n">
         <v>1500</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K331" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L331" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M331" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K332" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L332" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M332" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J333" t="n">
         <v>160</v>
       </c>
       <c r="K333" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L333" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M333" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q333" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K334" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M334" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q334" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K335" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L335" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M335" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K336" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L336" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M336" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q336" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>19000</v>
+        <v>240</v>
       </c>
       <c r="K337" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L337" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M337" t="n">
-        <v>1874</v>
+        <v>3750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="Q337" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K338" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L338" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M338" t="n">
-        <v>1362</v>
+        <v>3000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K339" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L339" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M339" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q339" t="n">
         <v>10</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="K340" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L340" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M340" t="n">
-        <v>3500</v>
+        <v>1362</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="Q340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K341" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L341" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M341" t="n">
-        <v>2900</v>
+        <v>931</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q341" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K342" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L342" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M342" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,12 +25003,156 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
       </c>
       <c r="R342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>7</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E343" t="n">
+        <v>16</v>
+      </c>
+      <c r="F343" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>300</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L343" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>15</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>7</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E344" t="n">
+        <v>16</v>
+      </c>
+      <c r="F344" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>120</v>
+      </c>
+      <c r="K344" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L344" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M344" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>15</v>
+      </c>
+      <c r="R344" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,36 +17705,36 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="M241" t="n">
-        <v>1650</v>
+        <v>3100</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,36 +17777,36 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>16000</v>
+        <v>240</v>
       </c>
       <c r="K242" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="L242" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M242" t="n">
-        <v>1450</v>
+        <v>2450</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,11 +17849,11 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="K243" t="n">
         <v>1600</v>
@@ -17862,7 +17862,7 @@
         <v>1700</v>
       </c>
       <c r="M243" t="n">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q243" t="n">
         <v>10</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="K244" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L244" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M244" t="n">
-        <v>1260</v>
+        <v>1450</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K245" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="L245" t="n">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="M245" t="n">
-        <v>5650</v>
+        <v>1642</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="Q245" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
         <v>25000</v>
       </c>
       <c r="K246" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L246" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M246" t="n">
-        <v>1920</v>
+        <v>1260</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="Q246" t="n">
         <v>10</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>14000</v>
+        <v>120</v>
       </c>
       <c r="K247" t="n">
-        <v>900</v>
+        <v>5500</v>
       </c>
       <c r="L247" t="n">
-        <v>1000</v>
+        <v>5800</v>
       </c>
       <c r="M247" t="n">
-        <v>957</v>
+        <v>5650</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,36 +18209,36 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L248" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M248" t="n">
-        <v>7250</v>
+        <v>1920</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="Q248" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="K249" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="L249" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M249" t="n">
-        <v>3900</v>
+        <v>957</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L250" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M250" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>46000</v>
+        <v>160</v>
       </c>
       <c r="K251" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="L251" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M251" t="n">
-        <v>1578</v>
+        <v>3900</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>45000</v>
+        <v>300</v>
       </c>
       <c r="K252" t="n">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="L252" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M252" t="n">
-        <v>1711</v>
+        <v>5750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18573,20 +18573,20 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="K253" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="L253" t="n">
-        <v>170</v>
+        <v>1700</v>
       </c>
       <c r="M253" t="n">
-        <v>158</v>
+        <v>1578</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18598,7 +18598,7 @@
         <v>158</v>
       </c>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>160</v>
+        <v>45000</v>
       </c>
       <c r="K254" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="L254" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M254" t="n">
-        <v>4750</v>
+        <v>1711</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>120</v>
+        <v>60000</v>
       </c>
       <c r="K255" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="L255" t="n">
-        <v>4000</v>
+        <v>170</v>
       </c>
       <c r="M255" t="n">
-        <v>3750</v>
+        <v>158</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L256" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M256" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
         <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L257" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M257" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18886,7 +18886,7 @@
         <v>250</v>
       </c>
       <c r="Q257" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K258" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L258" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="M258" t="n">
-        <v>5250</v>
+        <v>1850</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="Q258" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19008,17 +19008,17 @@
         <v>120</v>
       </c>
       <c r="K259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L259" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M259" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19080,17 +19080,17 @@
         <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L260" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M260" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19152,17 +19152,17 @@
         <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L261" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M261" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Q261" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19221,20 +19221,20 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L262" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M262" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="Q262" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,36 +19289,36 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="L263" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M263" t="n">
-        <v>1647</v>
+        <v>5250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L264" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="M264" t="n">
-        <v>3100</v>
+        <v>4250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K265" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L265" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M265" t="n">
-        <v>2800</v>
+        <v>1647</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K266" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L266" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M266" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="L267" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M267" t="n">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K268" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L268" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M268" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K269" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L269" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M269" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19800,13 +19800,13 @@
         <v>16000</v>
       </c>
       <c r="K270" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L270" t="n">
         <v>1700</v>
       </c>
-      <c r="L270" t="n">
-        <v>1800</v>
-      </c>
       <c r="M270" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q270" t="n">
         <v>10</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K271" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L271" t="n">
         <v>1400</v>
       </c>
-      <c r="L271" t="n">
-        <v>1500</v>
-      </c>
       <c r="M271" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19944,13 +19944,13 @@
         <v>16000</v>
       </c>
       <c r="K272" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L272" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M272" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K273" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L273" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M273" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K274" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L274" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M274" t="n">
-        <v>1908</v>
+        <v>1550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K275" t="n">
         <v>1300</v>
       </c>
       <c r="L275" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M275" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="K276" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L276" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M276" t="n">
-        <v>945</v>
+        <v>1908</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q276" t="n">
         <v>10</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K277" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L277" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M277" t="n">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q277" t="n">
         <v>10</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K278" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L278" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M278" t="n">
-        <v>1550</v>
+        <v>945</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="Q278" t="n">
         <v>10</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20441,36 +20441,36 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K279" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L279" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M279" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20513,36 +20513,36 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K280" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L280" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M280" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L281" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M281" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K282" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L282" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M282" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K283" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L283" t="n">
         <v>3800</v>
       </c>
-      <c r="L283" t="n">
-        <v>4000</v>
-      </c>
       <c r="M283" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
         <v>3000</v>
       </c>
       <c r="L284" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M284" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20880,13 +20880,13 @@
         <v>160</v>
       </c>
       <c r="K285" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L285" t="n">
         <v>4000</v>
       </c>
-      <c r="L285" t="n">
-        <v>4500</v>
-      </c>
       <c r="M285" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L286" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M286" t="n">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21024,13 +21024,13 @@
         <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L287" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M287" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L288" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M288" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K289" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L289" t="n">
         <v>4000</v>
       </c>
-      <c r="L289" t="n">
-        <v>4500</v>
-      </c>
       <c r="M289" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
         <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M290" t="n">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,11 +21305,11 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K291" t="n">
         <v>4000</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
         <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L292" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M292" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q292" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K293" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M293" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Q293" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K294" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L294" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M294" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K295" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M295" t="n">
-        <v>3550</v>
+        <v>6000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K296" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L296" t="n">
         <v>4000</v>
       </c>
-      <c r="L296" t="n">
-        <v>4500</v>
-      </c>
       <c r="M296" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K297" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L297" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M297" t="n">
-        <v>3250</v>
+        <v>3550</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M298" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q298" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K299" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L299" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M299" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q299" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
         <v>5500</v>
       </c>
       <c r="L301" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M301" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q301" t="n">
         <v>25</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22092,41 +22092,41 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>8500</v>
+        <v>3800</v>
       </c>
       <c r="L302" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M302" t="n">
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="Q302" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L303" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M303" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,41 +22236,41 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>14000</v>
+        <v>75</v>
       </c>
       <c r="K304" t="n">
-        <v>1000</v>
+        <v>8500</v>
       </c>
       <c r="L304" t="n">
-        <v>1100</v>
+        <v>9000</v>
       </c>
       <c r="M304" t="n">
-        <v>1036</v>
+        <v>8700</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="Q304" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22313,36 +22313,36 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K305" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L305" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M305" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q305" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K306" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L306" t="n">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="M306" t="n">
-        <v>4250</v>
+        <v>1036</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,36 +22457,36 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K307" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L307" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M307" t="n">
-        <v>3250</v>
+        <v>8308</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22680,13 +22680,13 @@
         <v>120</v>
       </c>
       <c r="K310" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L310" t="n">
         <v>4500</v>
       </c>
-      <c r="L310" t="n">
-        <v>5000</v>
-      </c>
       <c r="M310" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K311" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L311" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M311" t="n">
-        <v>1907</v>
+        <v>3250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K312" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L312" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="M312" t="n">
-        <v>1033</v>
+        <v>4750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="K313" t="n">
         <v>1800</v>
       </c>
       <c r="L313" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M313" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q313" t="n">
         <v>10</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K314" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L314" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="M314" t="n">
-        <v>1650</v>
+        <v>1033</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="Q314" t="n">
         <v>10</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,36 +23033,36 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="K315" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L315" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M315" t="n">
-        <v>3100</v>
+        <v>1850</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,36 +23105,36 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K316" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L316" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M316" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,24 +23177,24 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K317" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L317" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M317" t="n">
-        <v>1928</v>
+        <v>3100</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="K318" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L318" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M318" t="n">
-        <v>1454</v>
+        <v>3750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q318" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="K319" t="n">
         <v>1800</v>
@@ -23334,7 +23334,7 @@
         <v>2000</v>
       </c>
       <c r="M319" t="n">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q319" t="n">
         <v>10</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="K320" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L320" t="n">
         <v>1500</v>
       </c>
       <c r="M320" t="n">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q320" t="n">
         <v>10</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="K321" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L321" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M321" t="n">
-        <v>931</v>
+        <v>1867</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q321" t="n">
         <v>10</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K322" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L322" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M322" t="n">
-        <v>3250</v>
+        <v>1356</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="Q322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K323" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L323" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M323" t="n">
-        <v>2650</v>
+        <v>931</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K324" t="n">
         <v>3000</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L325" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="M325" t="n">
-        <v>5100</v>
+        <v>2650</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q325" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K326" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L326" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M326" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,36 +23897,36 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K327" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="L327" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="M327" t="n">
-        <v>1753</v>
+        <v>5100</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Q327" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K328" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L328" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M328" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K329" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L329" t="n">
         <v>1800</v>
       </c>
-      <c r="L329" t="n">
-        <v>1900</v>
-      </c>
       <c r="M329" t="n">
-        <v>1850</v>
+        <v>1753</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q329" t="n">
         <v>10</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K330" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L330" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M330" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q330" t="n">
         <v>10</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K331" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L331" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M331" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q331" t="n">
         <v>10</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K332" t="n">
         <v>1500</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K333" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L333" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M333" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K334" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L334" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M334" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q334" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J335" t="n">
         <v>160</v>
       </c>
       <c r="K335" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L335" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M335" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q335" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K336" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L336" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M336" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q336" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K337" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L337" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M337" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q337" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K338" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L338" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M338" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>19000</v>
+        <v>240</v>
       </c>
       <c r="K339" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L339" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M339" t="n">
-        <v>1874</v>
+        <v>3750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="Q339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K340" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L340" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M340" t="n">
-        <v>1362</v>
+        <v>3000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K341" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L341" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M341" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q341" t="n">
         <v>10</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="K342" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L342" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M342" t="n">
-        <v>3500</v>
+        <v>1362</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K343" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L343" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M343" t="n">
-        <v>2900</v>
+        <v>931</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K344" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L344" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M344" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,12 +25147,156 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q344" t="n">
         <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>7</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E345" t="n">
+        <v>16</v>
+      </c>
+      <c r="F345" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>300</v>
+      </c>
+      <c r="K345" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L345" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M345" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>15</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>7</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E346" t="n">
+        <v>16</v>
+      </c>
+      <c r="F346" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>120</v>
+      </c>
+      <c r="K346" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L346" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M346" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>15</v>
+      </c>
+      <c r="R346" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L150" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M150" t="n">
-        <v>3750</v>
+        <v>2900</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q150" t="n">
         <v>15</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>32000</v>
+        <v>120</v>
       </c>
       <c r="K151" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L151" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M151" t="n">
-        <v>1894</v>
+        <v>3750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>160</v>
+        <v>32000</v>
       </c>
       <c r="K152" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L152" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="M152" t="n">
-        <v>3650</v>
+        <v>1894</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="Q152" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L153" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M153" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q153" t="n">
         <v>15</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
         <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L154" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M154" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q154" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11520,13 +11520,13 @@
         <v>120</v>
       </c>
       <c r="K155" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L155" t="n">
         <v>4000</v>
       </c>
-      <c r="L155" t="n">
-        <v>4500</v>
-      </c>
       <c r="M155" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q155" t="n">
         <v>15</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L156" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M156" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q156" t="n">
         <v>15</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K157" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L157" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M157" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K158" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L158" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M158" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q158" t="n">
         <v>15</v>
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L159" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M159" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q159" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K160" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L160" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M160" t="n">
-        <v>3550</v>
+        <v>5750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q160" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K161" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L161" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M161" t="n">
-        <v>5250</v>
+        <v>3550</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Q161" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12017,24 +12017,24 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>33000</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L162" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M162" t="n">
-        <v>1909</v>
+        <v>5250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q162" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>120</v>
+        <v>33000</v>
       </c>
       <c r="K163" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L163" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M163" t="n">
-        <v>3900</v>
+        <v>1909</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="Q163" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J164" t="n">
         <v>120</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L164" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M164" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q164" t="n">
         <v>15</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>38000</v>
+        <v>120</v>
       </c>
       <c r="K165" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M165" t="n">
-        <v>1916</v>
+        <v>3250</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q165" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>300</v>
+        <v>38000</v>
       </c>
       <c r="K166" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L166" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M166" t="n">
-        <v>3900</v>
+        <v>1916</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="Q166" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K167" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L167" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M167" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q167" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12449,24 +12449,24 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J168" t="n">
         <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L168" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="M168" t="n">
-        <v>3100</v>
+        <v>5750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q168" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L169" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="M169" t="n">
-        <v>3650</v>
+        <v>3100</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
@@ -12600,17 +12600,17 @@
         <v>120</v>
       </c>
       <c r="K170" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="L170" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M170" t="n">
-        <v>4900</v>
+        <v>3650</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="Q170" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K171" t="n">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="L171" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="M171" t="n">
-        <v>1650</v>
+        <v>4900</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="Q171" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="K172" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L172" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M172" t="n">
-        <v>1896</v>
+        <v>1650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q172" t="n">
         <v>10</v>
@@ -12809,36 +12809,36 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K173" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L173" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M173" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K174" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L174" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M174" t="n">
-        <v>3250</v>
+        <v>7808</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="Q174" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L175" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M175" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q175" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>26000</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L176" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="M176" t="n">
-        <v>1850</v>
+        <v>6250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q176" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K177" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L177" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M177" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q177" t="n">
         <v>10</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K178" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L178" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M178" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J179" t="n">
         <v>120</v>
       </c>
       <c r="K179" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L179" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M179" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q179" t="n">
         <v>15</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>120</v>
       </c>
       <c r="K180" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L180" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M180" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
         <v>120</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L181" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M181" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -13457,36 +13457,36 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>60000</v>
+        <v>120</v>
       </c>
       <c r="K182" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L182" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M182" t="n">
-        <v>1617</v>
+        <v>3250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="Q182" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,36 +13529,36 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>60000</v>
       </c>
       <c r="K183" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="L183" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M183" t="n">
-        <v>3350</v>
+        <v>1617</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="Q183" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K184" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L184" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M184" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K185" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L185" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M185" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L186" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M186" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13774,7 +13774,7 @@
         <v>250</v>
       </c>
       <c r="Q186" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -13824,29 +13824,29 @@
         <v>120</v>
       </c>
       <c r="K187" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L187" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M187" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q187" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>120</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L188" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M188" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K189" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M189" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Q189" t="n">
         <v>15</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -14112,17 +14112,17 @@
         <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L191" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M191" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q191" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
         <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L192" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="M192" t="n">
-        <v>3100</v>
+        <v>5750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L193" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="M193" t="n">
-        <v>3550</v>
+        <v>3100</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="Q193" t="n">
         <v>15</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K194" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L194" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M194" t="n">
-        <v>2800</v>
+        <v>3550</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K195" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L195" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="M195" t="n">
-        <v>4750</v>
+        <v>2800</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,36 +14465,36 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L196" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M196" t="n">
-        <v>1920</v>
+        <v>4750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="Q196" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="K197" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L197" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M197" t="n">
-        <v>1408</v>
+        <v>1920</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="Q197" t="n">
         <v>10</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="K198" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L198" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M198" t="n">
-        <v>956</v>
+        <v>1408</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q198" t="n">
         <v>10</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="K199" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L199" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M199" t="n">
-        <v>1893</v>
+        <v>956</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="Q199" t="n">
         <v>10</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="K200" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L200" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M200" t="n">
-        <v>1441</v>
+        <v>1893</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="Q200" t="n">
         <v>10</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>300</v>
+        <v>17000</v>
       </c>
       <c r="K201" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L201" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M201" t="n">
-        <v>5750</v>
+        <v>1441</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L202" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M202" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="K203" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L203" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M203" t="n">
-        <v>1896</v>
+        <v>4500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q203" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K204" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L204" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M204" t="n">
-        <v>4250</v>
+        <v>1896</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
         <v>120</v>
       </c>
       <c r="K205" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L205" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M205" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L206" t="n">
         <v>3500</v>
       </c>
       <c r="M206" t="n">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
         <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L207" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M207" t="n">
-        <v>2900</v>
+        <v>3350</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -15329,24 +15329,24 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L208" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M208" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="Q208" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15408,17 +15408,17 @@
         <v>120</v>
       </c>
       <c r="K209" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L209" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M209" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="Q209" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L210" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M210" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Q210" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L211" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M211" t="n">
-        <v>1752</v>
+        <v>3250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="K212" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L212" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M212" t="n">
-        <v>1500</v>
+        <v>1752</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q212" t="n">
         <v>10</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K213" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L213" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="M213" t="n">
-        <v>6750</v>
+        <v>1500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q213" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -15761,36 +15761,36 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K214" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="L214" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>1950</v>
+        <v>6750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="Q214" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K215" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L215" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M215" t="n">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="Q215" t="n">
         <v>10</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="K216" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L216" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M216" t="n">
-        <v>1909</v>
+        <v>1700</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q216" t="n">
         <v>10</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="K217" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L217" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M217" t="n">
-        <v>1400</v>
+        <v>1909</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q217" t="n">
         <v>10</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="K218" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L218" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M218" t="n">
-        <v>954</v>
+        <v>1400</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q218" t="n">
         <v>10</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K219" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="L219" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M219" t="n">
-        <v>4250</v>
+        <v>954</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="Q219" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K220" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L220" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M220" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>57000</v>
+        <v>120</v>
       </c>
       <c r="K221" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L221" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M221" t="n">
-        <v>1577</v>
+        <v>3250</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="Q221" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>24000</v>
+        <v>57000</v>
       </c>
       <c r="K222" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L222" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M222" t="n">
-        <v>1125</v>
+        <v>1577</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q222" t="n">
         <v>10</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K223" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L223" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="M223" t="n">
-        <v>4250</v>
+        <v>1125</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16488,17 +16488,17 @@
         <v>120</v>
       </c>
       <c r="K224" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L224" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M224" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q224" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K225" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L225" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="M225" t="n">
-        <v>3550</v>
+        <v>5250</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="Q225" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>600</v>
       </c>
       <c r="K226" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L226" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M226" t="n">
-        <v>2900</v>
+        <v>3550</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="Q226" t="n">
         <v>15</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K227" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L227" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M227" t="n">
-        <v>3750</v>
+        <v>2900</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K228" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L228" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M228" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K229" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L229" t="n">
         <v>3000</v>
       </c>
-      <c r="L229" t="n">
-        <v>3200</v>
-      </c>
       <c r="M229" t="n">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K230" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L230" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M230" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K231" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L231" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M231" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K232" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L232" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M232" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17129,36 +17129,36 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>22000</v>
+        <v>160</v>
       </c>
       <c r="K233" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L233" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M233" t="n">
-        <v>1891</v>
+        <v>2900</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K234" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L234" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M234" t="n">
-        <v>1447</v>
+        <v>1891</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="K235" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L235" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M235" t="n">
-        <v>1055</v>
+        <v>1447</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q235" t="n">
         <v>10</v>
@@ -17345,36 +17345,36 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="K236" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="L236" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="M236" t="n">
-        <v>7800</v>
+        <v>1055</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="Q236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,36 +17417,36 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K237" t="n">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="L237" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>3900</v>
+        <v>7800</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>260</v>
+        <v>433</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L238" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M238" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>24000</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="L239" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M239" t="n">
-        <v>1950</v>
+        <v>2900</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K240" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L240" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M240" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q240" t="n">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K241" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L241" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M241" t="n">
-        <v>3100</v>
+        <v>1650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="Q241" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K242" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L242" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M242" t="n">
-        <v>2450</v>
+        <v>3100</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q242" t="n">
         <v>16</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,36 +17849,36 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>16000</v>
+        <v>240</v>
       </c>
       <c r="K243" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L243" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M243" t="n">
-        <v>1650</v>
+        <v>2450</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
         <v>16000</v>
       </c>
       <c r="K244" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L244" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M244" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="K245" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L245" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M245" t="n">
-        <v>1642</v>
+        <v>1450</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="Q245" t="n">
         <v>10</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K246" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L246" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M246" t="n">
-        <v>1260</v>
+        <v>1642</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q246" t="n">
         <v>10</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K247" t="n">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="L247" t="n">
-        <v>5800</v>
+        <v>1300</v>
       </c>
       <c r="M247" t="n">
-        <v>5650</v>
+        <v>1260</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="Q247" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L248" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M248" t="n">
-        <v>1920</v>
+        <v>5650</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K249" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L249" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M249" t="n">
-        <v>957</v>
+        <v>1920</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q249" t="n">
         <v>10</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,36 +18353,36 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K250" t="n">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="L250" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="M250" t="n">
-        <v>7250</v>
+        <v>957</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="Q250" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,36 +18425,36 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K251" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M251" t="n">
-        <v>3900</v>
+        <v>7250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L252" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M252" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q252" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>46000</v>
+        <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="L253" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="M253" t="n">
-        <v>1578</v>
+        <v>5750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="Q253" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="K254" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L254" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M254" t="n">
-        <v>1711</v>
+        <v>1578</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q254" t="n">
         <v>10</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18717,20 +18717,20 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="K255" t="n">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="L255" t="n">
-        <v>170</v>
+        <v>1800</v>
       </c>
       <c r="M255" t="n">
-        <v>158</v>
+        <v>1711</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>160</v>
+        <v>60000</v>
       </c>
       <c r="K256" t="n">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="L256" t="n">
-        <v>5000</v>
+        <v>170</v>
       </c>
       <c r="M256" t="n">
-        <v>4750</v>
+        <v>158</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K257" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L257" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M257" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L258" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="M258" t="n">
-        <v>1850</v>
+        <v>3750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K259" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="L259" t="n">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="M259" t="n">
-        <v>6250</v>
+        <v>1850</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Q259" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
         <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L260" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M260" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
         <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L261" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M261" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
         <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L262" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M262" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L263" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M263" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="Q263" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L264" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M264" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Q264" t="n">
         <v>16</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>34000</v>
+        <v>300</v>
       </c>
       <c r="K265" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M265" t="n">
-        <v>1647</v>
+        <v>4250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,36 +19505,36 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>300</v>
+        <v>34000</v>
       </c>
       <c r="K266" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L266" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M266" t="n">
-        <v>3100</v>
+        <v>1647</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K267" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L267" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M267" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L268" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="M268" t="n">
-        <v>1850</v>
+        <v>2800</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K269" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L269" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M269" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K270" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L270" t="n">
         <v>1600</v>
       </c>
-      <c r="L270" t="n">
-        <v>1700</v>
-      </c>
       <c r="M270" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q270" t="n">
         <v>10</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K271" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L271" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M271" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K272" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L272" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M272" t="n">
-        <v>1750</v>
+        <v>1350</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="K273" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L273" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M273" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K274" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L274" t="n">
         <v>1500</v>
       </c>
-      <c r="L274" t="n">
-        <v>1600</v>
-      </c>
       <c r="M274" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K275" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L275" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M275" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K276" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L276" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M276" t="n">
-        <v>1908</v>
+        <v>1350</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="Q276" t="n">
         <v>10</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K277" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L277" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M277" t="n">
-        <v>1400</v>
+        <v>1908</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q277" t="n">
         <v>10</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K278" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L278" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M278" t="n">
-        <v>945</v>
+        <v>1400</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Q278" t="n">
         <v>10</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="K279" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L279" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="M279" t="n">
-        <v>1850</v>
+        <v>945</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K280" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L280" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M280" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q280" t="n">
         <v>10</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20585,36 +20585,36 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K281" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L281" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M281" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K282" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L282" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M282" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K283" t="n">
         <v>3500</v>
       </c>
       <c r="L283" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M283" t="n">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K284" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L284" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M284" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K285" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L285" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M285" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L286" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M286" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L287" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M287" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L288" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M288" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K289" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L289" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M289" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
         <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L290" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M290" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L291" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M291" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
         <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L292" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M292" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L293" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M293" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21525,20 +21525,20 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K294" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L294" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M294" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q294" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L295" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q295" t="n">
         <v>25</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K296" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L296" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M296" t="n">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K297" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L297" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="M297" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
         <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L298" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="M298" t="n">
-        <v>4250</v>
+        <v>3550</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L299" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M299" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
         <v>120</v>
       </c>
       <c r="K300" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L300" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M300" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q300" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L301" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M301" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q301" t="n">
         <v>25</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K302" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="L302" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M302" t="n">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L303" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M303" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q303" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22236,41 +22236,41 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K304" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L304" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M304" t="n">
-        <v>8700</v>
+        <v>5750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>483</v>
+        <v>230</v>
       </c>
       <c r="Q304" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L257" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M257" t="n">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L258" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M258" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K259" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L259" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M259" t="n">
-        <v>1850</v>
+        <v>4750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
         <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L260" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M260" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19102,7 +19102,7 @@
         <v>250</v>
       </c>
       <c r="Q260" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K261" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L261" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="M261" t="n">
-        <v>5250</v>
+        <v>1850</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="Q261" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19224,17 +19224,17 @@
         <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L262" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M262" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19296,17 +19296,17 @@
         <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L263" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M263" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19368,17 +19368,17 @@
         <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L264" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M264" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Q264" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L265" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M265" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="Q265" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,36 +19505,36 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="L266" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="M266" t="n">
-        <v>1647</v>
+        <v>5250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
         <v>300</v>
       </c>
       <c r="K267" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L267" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="M267" t="n">
-        <v>3100</v>
+        <v>4250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K268" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L268" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M268" t="n">
-        <v>2800</v>
+        <v>1647</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K269" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L269" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M269" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q269" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="K270" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="L270" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M270" t="n">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K271" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L271" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M271" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K272" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L272" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M272" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20016,13 +20016,13 @@
         <v>16000</v>
       </c>
       <c r="K273" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L273" t="n">
         <v>1700</v>
       </c>
-      <c r="L273" t="n">
-        <v>1800</v>
-      </c>
       <c r="M273" t="n">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K274" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L274" t="n">
         <v>1400</v>
       </c>
-      <c r="L274" t="n">
-        <v>1500</v>
-      </c>
       <c r="M274" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20160,13 +20160,13 @@
         <v>16000</v>
       </c>
       <c r="K275" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L275" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M275" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K276" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L276" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M276" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q276" t="n">
         <v>10</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="K277" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L277" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M277" t="n">
-        <v>1908</v>
+        <v>1550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q277" t="n">
         <v>10</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="K278" t="n">
         <v>1300</v>
       </c>
       <c r="L278" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M278" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q278" t="n">
         <v>10</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="K279" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L279" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M279" t="n">
-        <v>945</v>
+        <v>1908</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K280" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L280" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M280" t="n">
-        <v>1850</v>
+        <v>1400</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q280" t="n">
         <v>10</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K281" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L281" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M281" t="n">
-        <v>1550</v>
+        <v>945</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="Q281" t="n">
         <v>10</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20657,36 +20657,36 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K282" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L282" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="M282" t="n">
-        <v>4250</v>
+        <v>1850</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20729,36 +20729,36 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="K283" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L283" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M283" t="n">
-        <v>3500</v>
+        <v>1550</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L284" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M284" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K285" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L285" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K286" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L286" t="n">
         <v>3800</v>
       </c>
-      <c r="L286" t="n">
-        <v>4000</v>
-      </c>
       <c r="M286" t="n">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
         <v>3000</v>
       </c>
       <c r="L287" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M287" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21096,13 +21096,13 @@
         <v>160</v>
       </c>
       <c r="K288" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L288" t="n">
         <v>4000</v>
       </c>
-      <c r="L288" t="n">
-        <v>4500</v>
-      </c>
       <c r="M288" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K289" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L289" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M289" t="n">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21240,13 +21240,13 @@
         <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L290" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M290" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L291" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M291" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K292" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L292" t="n">
         <v>4000</v>
       </c>
-      <c r="L292" t="n">
-        <v>4500</v>
-      </c>
       <c r="M292" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K293" t="n">
         <v>3000</v>
       </c>
       <c r="L293" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M293" t="n">
-        <v>3250</v>
+        <v>3100</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,11 +21521,11 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K294" t="n">
         <v>4000</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
         <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M295" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q295" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L296" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M296" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="Q296" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L297" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K298" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M298" t="n">
-        <v>3550</v>
+        <v>6000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K299" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L299" t="n">
         <v>4000</v>
       </c>
-      <c r="L299" t="n">
-        <v>4500</v>
-      </c>
       <c r="M299" t="n">
-        <v>4250</v>
+        <v>3900</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L300" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M300" t="n">
-        <v>3250</v>
+        <v>3550</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L301" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M301" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q301" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K302" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L302" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M302" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q302" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L303" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M303" t="n">
-        <v>3900</v>
+        <v>6750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K304" t="n">
         <v>5500</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M304" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L305" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M305" t="n">
-        <v>1896</v>
+        <v>3900</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>14000</v>
+        <v>120</v>
       </c>
       <c r="K306" t="n">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="L306" t="n">
-        <v>1100</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>1036</v>
+        <v>5750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22457,36 +22457,36 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="L307" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M307" t="n">
-        <v>8308</v>
+        <v>1896</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="Q307" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K308" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L308" t="n">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="M308" t="n">
-        <v>4250</v>
+        <v>1036</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,36 +22601,36 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K309" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M309" t="n">
-        <v>3250</v>
+        <v>8308</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22824,13 +22824,13 @@
         <v>120</v>
       </c>
       <c r="K312" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L312" t="n">
         <v>4500</v>
       </c>
-      <c r="L312" t="n">
-        <v>5000</v>
-      </c>
       <c r="M312" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L313" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M313" t="n">
-        <v>1907</v>
+        <v>3250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L314" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="M314" t="n">
-        <v>1033</v>
+        <v>4750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="Q314" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="K315" t="n">
         <v>1800</v>
       </c>
       <c r="L315" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M315" t="n">
-        <v>1850</v>
+        <v>1907</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q315" t="n">
         <v>10</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K316" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L316" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="M316" t="n">
-        <v>1650</v>
+        <v>1033</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,36 +23177,36 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="K317" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L317" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M317" t="n">
-        <v>3100</v>
+        <v>1850</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,36 +23249,36 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K318" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L318" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M318" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L319" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M319" t="n">
-        <v>1928</v>
+        <v>3100</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="K320" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L320" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M320" t="n">
-        <v>1454</v>
+        <v>3750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="K321" t="n">
         <v>1800</v>
@@ -23478,7 +23478,7 @@
         <v>2000</v>
       </c>
       <c r="M321" t="n">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q321" t="n">
         <v>10</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="K322" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L322" t="n">
         <v>1500</v>
       </c>
       <c r="M322" t="n">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q322" t="n">
         <v>10</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="K323" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L323" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M323" t="n">
-        <v>931</v>
+        <v>1867</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q323" t="n">
         <v>10</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K324" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L324" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M324" t="n">
-        <v>3250</v>
+        <v>1356</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K325" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L325" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M325" t="n">
-        <v>2650</v>
+        <v>931</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q325" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K326" t="n">
         <v>3000</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K327" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L327" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="M327" t="n">
-        <v>5100</v>
+        <v>2650</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q327" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K328" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L328" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M328" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,36 +24041,36 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>34000</v>
+        <v>120</v>
       </c>
       <c r="K329" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="L329" t="n">
-        <v>1800</v>
+        <v>5200</v>
       </c>
       <c r="M329" t="n">
-        <v>1753</v>
+        <v>5100</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Q329" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K330" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L330" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M330" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q330" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K331" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L331" t="n">
         <v>1800</v>
       </c>
-      <c r="L331" t="n">
-        <v>1900</v>
-      </c>
       <c r="M331" t="n">
-        <v>1850</v>
+        <v>1753</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q331" t="n">
         <v>10</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K332" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L332" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M332" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q332" t="n">
         <v>10</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K333" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L333" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M333" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q333" t="n">
         <v>10</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K334" t="n">
         <v>1500</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K335" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L335" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M335" t="n">
-        <v>3900</v>
+        <v>1750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K336" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L336" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M336" t="n">
-        <v>3250</v>
+        <v>1550</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Q336" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J337" t="n">
         <v>160</v>
       </c>
       <c r="K337" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="L337" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M337" t="n">
-        <v>6750</v>
+        <v>3900</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q337" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K338" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L338" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M338" t="n">
-        <v>5500</v>
+        <v>3250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q338" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K339" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L339" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M339" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K340" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L340" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M340" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q340" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>19000</v>
+        <v>240</v>
       </c>
       <c r="K341" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L341" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M341" t="n">
-        <v>1874</v>
+        <v>3750</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="Q341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K342" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L342" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M342" t="n">
-        <v>1362</v>
+        <v>3000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K343" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L343" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M343" t="n">
-        <v>931</v>
+        <v>1874</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="Q343" t="n">
         <v>10</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="K344" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L344" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M344" t="n">
-        <v>3500</v>
+        <v>1362</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K345" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L345" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M345" t="n">
-        <v>2900</v>
+        <v>931</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q345" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L346" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M346" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,12 +25291,156 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
       </c>
       <c r="R346" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>7</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E347" t="n">
+        <v>16</v>
+      </c>
+      <c r="F347" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>300</v>
+      </c>
+      <c r="K347" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L347" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M347" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>15</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>7</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E348" t="n">
+        <v>16</v>
+      </c>
+      <c r="F348" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>120</v>
+      </c>
+      <c r="K348" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L348" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M348" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>15</v>
+      </c>
+      <c r="R348" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:R349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K123" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L123" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M123" t="n">
-        <v>4750</v>
+        <v>3100</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="Q123" t="n">
         <v>15</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K124" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L124" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M124" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q124" t="n">
         <v>15</v>
@@ -9357,20 +9357,20 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K125" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L125" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M125" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q125" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -9432,29 +9432,29 @@
         <v>120</v>
       </c>
       <c r="K126" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L126" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M126" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="Q126" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K127" t="n">
         <v>4000</v>
       </c>
       <c r="L127" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M127" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q127" t="n">
         <v>15</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K128" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L128" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M128" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="Q128" t="n">
         <v>15</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -9641,36 +9641,36 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K129" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L129" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M129" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q129" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J130" t="n">
         <v>160</v>
       </c>
       <c r="K130" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L130" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M130" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q130" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>160</v>
       </c>
       <c r="K131" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L131" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M131" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q131" t="n">
         <v>15</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L132" t="n">
         <v>3500</v>
       </c>
       <c r="M132" t="n">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q132" t="n">
         <v>15</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K133" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L133" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M133" t="n">
-        <v>2900</v>
+        <v>3350</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="Q133" t="n">
         <v>15</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>31000</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L134" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M134" t="n">
-        <v>1916</v>
+        <v>2900</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q134" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>120</v>
+        <v>31000</v>
       </c>
       <c r="K135" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L135" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M135" t="n">
-        <v>4250</v>
+        <v>1916</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="Q135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J136" t="n">
         <v>120</v>
       </c>
       <c r="K136" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L136" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M136" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q136" t="n">
         <v>15</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>30000</v>
+        <v>120</v>
       </c>
       <c r="K137" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L137" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M137" t="n">
-        <v>1750</v>
+        <v>3250</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="Q137" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="K138" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L138" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M138" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q138" t="n">
         <v>10</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>43000</v>
+        <v>16000</v>
       </c>
       <c r="K139" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L139" t="n">
         <v>1600</v>
       </c>
-      <c r="L139" t="n">
-        <v>1700</v>
-      </c>
       <c r="M139" t="n">
-        <v>1642</v>
+        <v>1550</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q139" t="n">
         <v>10</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="K140" t="n">
         <v>1600</v>
@@ -10446,7 +10446,7 @@
         <v>1700</v>
       </c>
       <c r="M140" t="n">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q140" t="n">
         <v>10</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="K141" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L141" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M141" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q141" t="n">
         <v>10</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -10577,36 +10577,36 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="K142" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="L142" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M142" t="n">
-        <v>4250</v>
+        <v>1450</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="Q142" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K143" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L143" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M143" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q143" t="n">
         <v>15</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K144" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="L144" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M144" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="Q144" t="n">
         <v>15</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="L145" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M145" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="Q145" t="n">
         <v>15</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -10865,36 +10865,36 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K146" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L146" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M146" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="Q146" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K147" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L147" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M147" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q147" t="n">
         <v>10</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K148" t="n">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="L148" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="M148" t="n">
-        <v>6250</v>
+        <v>1450</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q148" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L149" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M149" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K150" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="L150" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M150" t="n">
-        <v>2900</v>
+        <v>5250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q150" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L151" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M151" t="n">
-        <v>3750</v>
+        <v>2900</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q151" t="n">
         <v>15</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>32000</v>
+        <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L152" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M152" t="n">
-        <v>1894</v>
+        <v>3750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q152" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>160</v>
+        <v>32000</v>
       </c>
       <c r="K153" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L153" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="M153" t="n">
-        <v>3650</v>
+        <v>1894</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="Q153" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L154" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M154" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q154" t="n">
         <v>15</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>120</v>
       </c>
       <c r="K155" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L155" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M155" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q155" t="n">
         <v>15</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11592,13 +11592,13 @@
         <v>120</v>
       </c>
       <c r="K156" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L156" t="n">
         <v>4000</v>
       </c>
-      <c r="L156" t="n">
-        <v>4500</v>
-      </c>
       <c r="M156" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q156" t="n">
         <v>15</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K157" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L157" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M157" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K158" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L158" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M158" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q158" t="n">
         <v>15</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L159" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M159" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q159" t="n">
         <v>15</v>
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L160" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M160" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q160" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K161" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L161" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="M161" t="n">
-        <v>3550</v>
+        <v>5750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q161" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K162" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L162" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M162" t="n">
-        <v>5250</v>
+        <v>3550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Q162" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>33000</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L163" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M163" t="n">
-        <v>1909</v>
+        <v>5250</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q163" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>33000</v>
       </c>
       <c r="K164" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L164" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M164" t="n">
-        <v>3900</v>
+        <v>1909</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="Q164" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J165" t="n">
         <v>120</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L165" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M165" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q165" t="n">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>38000</v>
+        <v>120</v>
       </c>
       <c r="K166" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L166" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M166" t="n">
-        <v>1916</v>
+        <v>3250</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q166" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -12377,24 +12377,24 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>300</v>
+        <v>38000</v>
       </c>
       <c r="K167" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L167" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M167" t="n">
-        <v>3900</v>
+        <v>1916</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="Q167" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L168" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M168" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q168" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J169" t="n">
         <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L169" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="M169" t="n">
-        <v>3100</v>
+        <v>5750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q169" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K170" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L170" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="M170" t="n">
-        <v>3650</v>
+        <v>3100</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="Q170" t="n">
         <v>15</v>
@@ -12672,17 +12672,17 @@
         <v>120</v>
       </c>
       <c r="K171" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="L171" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M171" t="n">
-        <v>4900</v>
+        <v>3650</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="Q171" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -12737,24 +12737,24 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="L172" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="M172" t="n">
-        <v>1650</v>
+        <v>4900</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="Q172" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="K173" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L173" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M173" t="n">
-        <v>1896</v>
+        <v>1650</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q173" t="n">
         <v>10</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K174" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L174" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M174" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q174" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -12957,32 +12957,32 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K175" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L175" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M175" t="n">
-        <v>3250</v>
+        <v>7808</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -13025,24 +13025,24 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L176" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M176" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q176" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -13097,36 +13097,36 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>26000</v>
+        <v>120</v>
       </c>
       <c r="K177" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L177" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="M177" t="n">
-        <v>1850</v>
+        <v>6250</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q177" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K178" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L178" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M178" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q178" t="n">
         <v>10</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -13241,36 +13241,36 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K179" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L179" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M179" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>120</v>
       </c>
       <c r="K180" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L180" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M180" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q180" t="n">
         <v>15</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
         <v>120</v>
       </c>
       <c r="K181" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L181" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M181" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>120</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L182" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M182" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,36 +13529,36 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>60000</v>
+        <v>120</v>
       </c>
       <c r="K183" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M183" t="n">
-        <v>1617</v>
+        <v>3250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="Q183" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>60000</v>
       </c>
       <c r="K184" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="L184" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M184" t="n">
-        <v>3350</v>
+        <v>1617</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L185" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M185" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K186" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L186" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M186" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13846,7 +13846,7 @@
         <v>250</v>
       </c>
       <c r="Q187" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -13896,29 +13896,29 @@
         <v>120</v>
       </c>
       <c r="K188" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L188" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M188" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q188" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>120</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L189" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M189" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q189" t="n">
         <v>15</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K190" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M190" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="Q190" t="n">
         <v>15</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P191" t="n">
@@ -14184,17 +14184,17 @@
         <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L192" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M192" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q192" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
         <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L193" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="M193" t="n">
-        <v>3100</v>
+        <v>5750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L194" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="M194" t="n">
-        <v>3550</v>
+        <v>3100</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K195" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L195" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M195" t="n">
-        <v>2800</v>
+        <v>3550</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K196" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L196" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="M196" t="n">
-        <v>4750</v>
+        <v>2800</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -14537,36 +14537,36 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L197" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M197" t="n">
-        <v>1920</v>
+        <v>4750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="Q197" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="K198" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L198" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M198" t="n">
-        <v>1408</v>
+        <v>1920</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="Q198" t="n">
         <v>10</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="K199" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L199" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M199" t="n">
-        <v>956</v>
+        <v>1408</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q199" t="n">
         <v>10</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="K200" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L200" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M200" t="n">
-        <v>1893</v>
+        <v>956</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="Q200" t="n">
         <v>10</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="K201" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L201" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M201" t="n">
-        <v>1441</v>
+        <v>1893</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="Q201" t="n">
         <v>10</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>17000</v>
       </c>
       <c r="K202" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L202" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M202" t="n">
-        <v>5750</v>
+        <v>1441</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="Q202" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L203" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M203" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="K204" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L204" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M204" t="n">
-        <v>1896</v>
+        <v>4500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K205" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L205" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M205" t="n">
-        <v>4250</v>
+        <v>1896</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
         <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L206" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M206" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K207" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L207" t="n">
         <v>3500</v>
       </c>
       <c r="M207" t="n">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
         <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L208" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M208" t="n">
-        <v>2900</v>
+        <v>3350</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K209" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L209" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M209" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="Q209" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15480,17 +15480,17 @@
         <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L210" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M210" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="Q210" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L211" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M211" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="Q211" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L212" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M212" t="n">
-        <v>1752</v>
+        <v>3250</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="K213" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L213" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M213" t="n">
-        <v>1500</v>
+        <v>1752</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q213" t="n">
         <v>10</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K214" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="M214" t="n">
-        <v>6750</v>
+        <v>1500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q214" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,36 +15833,36 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="K215" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="L215" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>1950</v>
+        <v>6750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="Q215" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K216" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L216" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M216" t="n">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="Q216" t="n">
         <v>10</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="K217" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L217" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M217" t="n">
-        <v>1909</v>
+        <v>1700</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q217" t="n">
         <v>10</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="K218" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L218" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M218" t="n">
-        <v>1400</v>
+        <v>1909</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q218" t="n">
         <v>10</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="K219" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L219" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M219" t="n">
-        <v>954</v>
+        <v>1400</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q219" t="n">
         <v>10</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="K220" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="L220" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M220" t="n">
-        <v>4250</v>
+        <v>954</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K221" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L221" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M221" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,24 +16337,24 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>57000</v>
+        <v>120</v>
       </c>
       <c r="K222" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L222" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M222" t="n">
-        <v>1577</v>
+        <v>3250</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="Q222" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>24000</v>
+        <v>57000</v>
       </c>
       <c r="K223" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L223" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M223" t="n">
-        <v>1125</v>
+        <v>1577</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="Q223" t="n">
         <v>10</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -16481,24 +16481,24 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K224" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L224" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="M224" t="n">
-        <v>4250</v>
+        <v>1125</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16560,17 +16560,17 @@
         <v>120</v>
       </c>
       <c r="K225" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L225" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M225" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q225" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K226" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L226" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="M226" t="n">
-        <v>3550</v>
+        <v>5250</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="Q226" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J227" t="n">
         <v>600</v>
       </c>
       <c r="K227" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L227" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M227" t="n">
-        <v>2900</v>
+        <v>3550</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="Q227" t="n">
         <v>15</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K228" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L228" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M228" t="n">
-        <v>3750</v>
+        <v>2900</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L229" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M229" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L230" t="n">
         <v>3000</v>
       </c>
-      <c r="L230" t="n">
-        <v>3200</v>
-      </c>
       <c r="M230" t="n">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K231" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L231" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M231" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L232" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M232" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L233" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M233" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17201,36 +17201,36 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>22000</v>
+        <v>160</v>
       </c>
       <c r="K234" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L234" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M234" t="n">
-        <v>1891</v>
+        <v>2900</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q234" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K235" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L235" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M235" t="n">
-        <v>1447</v>
+        <v>1891</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q235" t="n">
         <v>10</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="K236" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L236" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M236" t="n">
-        <v>1055</v>
+        <v>1447</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q236" t="n">
         <v>10</v>
@@ -17417,36 +17417,36 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="K237" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="L237" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="M237" t="n">
-        <v>7800</v>
+        <v>1055</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="Q237" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,36 +17489,36 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K238" t="n">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="L238" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M238" t="n">
-        <v>3900</v>
+        <v>7800</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>260</v>
+        <v>433</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L239" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M239" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>24000</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="L240" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M240" t="n">
-        <v>1950</v>
+        <v>2900</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K241" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L241" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M241" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q241" t="n">
         <v>10</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K242" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L242" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M242" t="n">
-        <v>3100</v>
+        <v>1650</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="Q242" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L243" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M243" t="n">
-        <v>2450</v>
+        <v>3100</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q243" t="n">
         <v>16</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -17921,36 +17921,36 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>16000</v>
+        <v>240</v>
       </c>
       <c r="K244" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L244" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M244" t="n">
-        <v>1650</v>
+        <v>2450</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q244" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
         <v>16000</v>
       </c>
       <c r="K245" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L245" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M245" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q245" t="n">
         <v>10</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="K246" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L246" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M246" t="n">
-        <v>1642</v>
+        <v>1450</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="Q246" t="n">
         <v>10</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K247" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L247" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M247" t="n">
-        <v>1260</v>
+        <v>1642</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K248" t="n">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="L248" t="n">
-        <v>5800</v>
+        <v>1300</v>
       </c>
       <c r="M248" t="n">
-        <v>5650</v>
+        <v>1260</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="Q248" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K249" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L249" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M249" t="n">
-        <v>1920</v>
+        <v>5650</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K250" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L250" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M250" t="n">
-        <v>957</v>
+        <v>1920</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,36 +18425,36 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>14000</v>
       </c>
       <c r="K251" t="n">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="L251" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="M251" t="n">
-        <v>7250</v>
+        <v>957</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="Q251" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,36 +18497,36 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K252" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="L252" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M252" t="n">
-        <v>3900</v>
+        <v>7250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18573,20 +18573,20 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K253" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M253" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q253" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>46000</v>
+        <v>300</v>
       </c>
       <c r="K254" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="L254" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="M254" t="n">
-        <v>1578</v>
+        <v>5750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="K255" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L255" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M255" t="n">
-        <v>1711</v>
+        <v>1578</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q255" t="n">
         <v>10</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -18789,20 +18789,20 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="K256" t="n">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="L256" t="n">
-        <v>170</v>
+        <v>1800</v>
       </c>
       <c r="M256" t="n">
-        <v>158</v>
+        <v>1711</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q256" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="K257" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="L257" t="n">
-        <v>3000</v>
+        <v>170</v>
       </c>
       <c r="M257" t="n">
-        <v>2900</v>
+        <v>158</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K258" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L258" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M258" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K259" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L259" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M259" t="n">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M260" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L261" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="M261" t="n">
-        <v>1850</v>
+        <v>3750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K262" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="L262" t="n">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="M262" t="n">
-        <v>6250</v>
+        <v>1850</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Q262" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M263" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L264" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M264" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
         <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M265" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
         <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L266" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M266" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="Q266" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L267" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M267" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Q267" t="n">
         <v>16</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>34000</v>
+        <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L268" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="M268" t="n">
-        <v>1647</v>
+        <v>4250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19721,36 +19721,36 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>300</v>
+        <v>34000</v>
       </c>
       <c r="K269" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L269" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M269" t="n">
-        <v>3100</v>
+        <v>1647</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K270" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L270" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M270" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L271" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="M271" t="n">
-        <v>1850</v>
+        <v>2800</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K272" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L272" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M272" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q272" t="n">
         <v>10</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K273" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L273" t="n">
         <v>1600</v>
       </c>
-      <c r="L273" t="n">
-        <v>1700</v>
-      </c>
       <c r="M273" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q273" t="n">
         <v>10</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K274" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L274" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M274" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K275" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L275" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M275" t="n">
-        <v>1750</v>
+        <v>1350</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="Q275" t="n">
         <v>10</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="K276" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L276" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M276" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q276" t="n">
         <v>10</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K277" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L277" t="n">
         <v>1500</v>
       </c>
-      <c r="L277" t="n">
-        <v>1600</v>
-      </c>
       <c r="M277" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q277" t="n">
         <v>10</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K278" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L278" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M278" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q278" t="n">
         <v>10</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K279" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L279" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M279" t="n">
-        <v>1908</v>
+        <v>1350</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="Q279" t="n">
         <v>10</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K280" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L280" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M280" t="n">
-        <v>1400</v>
+        <v>1908</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q280" t="n">
         <v>10</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K281" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L281" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M281" t="n">
-        <v>945</v>
+        <v>1400</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Q281" t="n">
         <v>10</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="K282" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L282" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="M282" t="n">
-        <v>1850</v>
+        <v>945</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="Q282" t="n">
         <v>10</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K283" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L283" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M283" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q283" t="n">
         <v>10</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20801,36 +20801,36 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K284" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L284" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M284" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L285" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M285" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="K286" t="n">
         <v>3500</v>
       </c>
       <c r="L286" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M286" t="n">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K287" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L287" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M287" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L288" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M288" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K289" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L289" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M289" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M290" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L291" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M291" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K292" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L292" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M292" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
         <v>160</v>
       </c>
       <c r="K293" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L293" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M293" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L294" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M294" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
         <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L295" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M295" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L296" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M296" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K297" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M297" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q297" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K298" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L298" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q298" t="n">
         <v>25</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K299" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K300" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L300" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="M300" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
         <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L301" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="M301" t="n">
-        <v>4250</v>
+        <v>3550</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
         <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L303" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M303" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q303" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K304" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L304" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q304" t="n">
         <v>25</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K305" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="L305" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M305" t="n">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K306" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L306" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M306" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q306" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L307" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M307" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q307" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K308" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L308" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M308" t="n">
-        <v>1036</v>
+        <v>1896</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="Q308" t="n">
         <v>10</v>
@@ -22601,36 +22601,36 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="L309" t="n">
-        <v>8500</v>
+        <v>1100</v>
       </c>
       <c r="M309" t="n">
-        <v>8308</v>
+        <v>1036</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="Q309" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,36 +22673,36 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K310" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L310" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M310" t="n">
-        <v>4250</v>
+        <v>8308</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>283</v>
+        <v>462</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
         <v>120</v>
       </c>
       <c r="K311" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L311" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M311" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
         <v>120</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L312" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M312" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
         <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L313" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M313" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
         <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L314" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M314" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L315" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M315" t="n">
-        <v>1907</v>
+        <v>4750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="Q315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K316" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L316" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M316" t="n">
-        <v>1033</v>
+        <v>1907</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K317" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L317" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="M317" t="n">
-        <v>1850</v>
+        <v>1033</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="Q317" t="n">
         <v>10</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K318" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L318" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M318" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q318" t="n">
         <v>10</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,36 +23321,36 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K319" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L319" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M319" t="n">
-        <v>3100</v>
+        <v>1650</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K320" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L320" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M320" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L321" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M321" t="n">
-        <v>1928</v>
+        <v>3750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q321" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K322" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L322" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M322" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q322" t="n">
         <v>10</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="K323" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L323" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M323" t="n">
-        <v>1867</v>
+        <v>1454</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="Q323" t="n">
         <v>10</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="K324" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L324" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M324" t="n">
-        <v>1356</v>
+        <v>1867</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q324" t="n">
         <v>10</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="K325" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L325" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M325" t="n">
-        <v>931</v>
+        <v>1356</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q325" t="n">
         <v>10</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K326" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="L326" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M326" t="n">
-        <v>3250</v>
+        <v>931</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L327" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M327" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L328" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M328" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24045,20 +24045,20 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K329" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L329" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M329" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K330" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L330" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M330" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,36 +24185,36 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>34000</v>
+        <v>300</v>
       </c>
       <c r="K331" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L331" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M331" t="n">
-        <v>1753</v>
+        <v>2650</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K332" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L332" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M332" t="n">
-        <v>1650</v>
+        <v>1753</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q332" t="n">
         <v>10</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24336,13 +24336,13 @@
         <v>12000</v>
       </c>
       <c r="K333" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L333" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="M333" t="n">
-        <v>1850</v>
+        <v>1650</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q333" t="n">
         <v>10</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K334" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L334" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M334" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q334" t="n">
         <v>10</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K335" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L335" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M335" t="n">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q335" t="n">
         <v>10</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K336" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L336" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M336" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q336" t="n">
         <v>10</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K337" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L337" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M337" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K338" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L338" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M338" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K339" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L339" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M339" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q339" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K340" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L340" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M340" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q340" t="n">
         <v>25</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K341" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L341" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M341" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q341" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K342" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L342" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M342" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>19000</v>
+        <v>120</v>
       </c>
       <c r="K343" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L343" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M343" t="n">
-        <v>1874</v>
+        <v>3000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q343" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="K344" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L344" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M344" t="n">
-        <v>1362</v>
+        <v>1874</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q344" t="n">
         <v>10</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="K345" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L345" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M345" t="n">
-        <v>931</v>
+        <v>1362</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q345" t="n">
         <v>10</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="K346" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="L346" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M346" t="n">
-        <v>3500</v>
+        <v>931</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="Q346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K347" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L347" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M347" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K348" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L348" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M348" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,12 +25435,84 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
       </c>
       <c r="R348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>7</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E349" t="n">
+        <v>16</v>
+      </c>
+      <c r="F349" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>120</v>
+      </c>
+      <c r="K349" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L349" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M349" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>15</v>
+      </c>
+      <c r="R349" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R349"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M300" t="n">
-        <v>3900</v>
+        <v>2400</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L301" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="M301" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
         <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>3550</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L303" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M303" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
         <v>120</v>
       </c>
       <c r="K304" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M304" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q304" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K305" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L305" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M305" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q305" t="n">
         <v>25</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K306" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="L306" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M306" t="n">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L307" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M307" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q307" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L308" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M308" t="n">
-        <v>1896</v>
+        <v>5750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K309" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L309" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M309" t="n">
-        <v>1036</v>
+        <v>1896</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="Q309" t="n">
         <v>10</v>
@@ -22673,36 +22673,36 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="K310" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="L310" t="n">
-        <v>8500</v>
+        <v>1100</v>
       </c>
       <c r="M310" t="n">
-        <v>8308</v>
+        <v>1036</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="Q310" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,36 +22745,36 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K311" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L311" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M311" t="n">
-        <v>4250</v>
+        <v>8308</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>283</v>
+        <v>462</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
         <v>120</v>
       </c>
       <c r="K312" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M312" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
         <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L313" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M313" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
         <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L314" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M314" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
         <v>120</v>
       </c>
       <c r="K315" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L315" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M315" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K316" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L316" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M316" t="n">
-        <v>1907</v>
+        <v>4750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K317" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L317" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M317" t="n">
-        <v>1033</v>
+        <v>1907</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="Q317" t="n">
         <v>10</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K318" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L318" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="M318" t="n">
-        <v>1850</v>
+        <v>1033</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="Q318" t="n">
         <v>10</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K319" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L319" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M319" t="n">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q319" t="n">
         <v>10</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,36 +23393,36 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K320" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L320" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="M320" t="n">
-        <v>3100</v>
+        <v>1650</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K321" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L321" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M321" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L322" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M322" t="n">
-        <v>1928</v>
+        <v>3750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K323" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L323" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M323" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q323" t="n">
         <v>10</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="K324" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L324" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M324" t="n">
-        <v>1867</v>
+        <v>1454</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="Q324" t="n">
         <v>10</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="K325" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L325" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M325" t="n">
-        <v>1356</v>
+        <v>1867</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q325" t="n">
         <v>10</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="K326" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L326" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M326" t="n">
-        <v>931</v>
+        <v>1356</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q326" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>931</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K328" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L328" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M328" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K329" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M329" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K330" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L330" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M330" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q330" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K331" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L331" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M331" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,36 +24257,36 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>34000</v>
+        <v>300</v>
       </c>
       <c r="K332" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L332" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M332" t="n">
-        <v>1753</v>
+        <v>2650</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="K333" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L333" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M333" t="n">
-        <v>1650</v>
+        <v>1753</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q333" t="n">
         <v>10</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24408,13 +24408,13 @@
         <v>12000</v>
       </c>
       <c r="K334" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L334" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="M334" t="n">
-        <v>1850</v>
+        <v>1650</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q334" t="n">
         <v>10</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K335" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L335" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M335" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q335" t="n">
         <v>10</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="K336" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L336" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M336" t="n">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q336" t="n">
         <v>10</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K337" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L337" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M337" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q337" t="n">
         <v>10</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K338" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L338" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M338" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K339" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L339" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M339" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q339" t="n">
         <v>15</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K340" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L340" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M340" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="Q340" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K341" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L341" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M341" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q341" t="n">
         <v>25</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K342" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L342" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M342" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K343" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L343" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M343" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q343" t="n">
         <v>15</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>19000</v>
+        <v>120</v>
       </c>
       <c r="K344" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L344" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M344" t="n">
-        <v>1874</v>
+        <v>3000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q344" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="K345" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L345" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M345" t="n">
-        <v>1362</v>
+        <v>1874</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="Q345" t="n">
         <v>10</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="K346" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L346" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M346" t="n">
-        <v>931</v>
+        <v>1362</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q346" t="n">
         <v>10</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -25337,24 +25337,24 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="K347" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="L347" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M347" t="n">
-        <v>3500</v>
+        <v>931</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="Q347" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K348" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L348" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M348" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K349" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L349" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M349" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,12 +25507,84 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q349" t="n">
         <v>15</v>
       </c>
       <c r="R349" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>7</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E350" t="n">
+        <v>16</v>
+      </c>
+      <c r="F350" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>120</v>
+      </c>
+      <c r="K350" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L350" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M350" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>15</v>
+      </c>
+      <c r="R350" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R351"/>
+  <dimension ref="A1:R353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,36 +21665,36 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="K296" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L296" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M296" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,36 +21737,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="K297" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="L297" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M297" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K298" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L298" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M298" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K299" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L299" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M299" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
         <v>4000</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L301" t="n">
         <v>3500</v>
       </c>
       <c r="M301" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>5773</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="Q302" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K303" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L303" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M303" t="n">
-        <v>9278</v>
+        <v>3500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>371</v>
+        <v>233</v>
       </c>
       <c r="Q303" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K304" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L304" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M304" t="n">
-        <v>4250</v>
+        <v>5773</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K305" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L305" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M305" t="n">
-        <v>3250</v>
+        <v>9278</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22392,13 +22392,13 @@
         <v>120</v>
       </c>
       <c r="K306" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L306" t="n">
         <v>4500</v>
       </c>
-      <c r="L306" t="n">
-        <v>5000</v>
-      </c>
       <c r="M306" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
         <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L307" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M307" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L308" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>24000</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="L309" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M309" t="n">
-        <v>1950</v>
+        <v>4250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>12000</v>
+        <v>60</v>
       </c>
       <c r="K310" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L310" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M310" t="n">
-        <v>1650</v>
+        <v>3500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>120</v>
+        <v>24000</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="L311" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M311" t="n">
-        <v>3750</v>
+        <v>1950</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K312" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L312" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M312" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
         <v>120</v>
       </c>
       <c r="K313" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L313" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M313" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22918,7 +22918,7 @@
         <v>250</v>
       </c>
       <c r="Q313" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K314" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L314" t="n">
         <v>4000</v>
       </c>
-      <c r="L314" t="n">
-        <v>4500</v>
-      </c>
       <c r="M314" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L315" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M315" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>38000</v>
+        <v>120</v>
       </c>
       <c r="K316" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L316" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M316" t="n">
-        <v>1916</v>
+        <v>4250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K317" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L317" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M317" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>38000</v>
       </c>
       <c r="K318" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L318" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M318" t="n">
-        <v>4250</v>
+        <v>1916</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K319" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L319" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M319" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K320" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L320" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="M320" t="n">
-        <v>3100</v>
+        <v>4250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K321" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L321" t="n">
         <v>4000</v>
       </c>
       <c r="M321" t="n">
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23544,13 +23544,13 @@
         <v>160</v>
       </c>
       <c r="K322" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L322" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M322" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23616,13 +23616,13 @@
         <v>120</v>
       </c>
       <c r="K323" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L323" t="n">
         <v>4000</v>
       </c>
-      <c r="L323" t="n">
-        <v>4500</v>
-      </c>
       <c r="M323" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K324" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L324" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M324" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K325" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L325" t="n">
         <v>4500</v>
       </c>
-      <c r="L325" t="n">
-        <v>5000</v>
-      </c>
       <c r="M325" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K326" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M326" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K327" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M327" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L328" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M328" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K329" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L329" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M329" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K330" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="L330" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M330" t="n">
-        <v>5250</v>
+        <v>2900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="Q330" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K331" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L331" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="M331" t="n">
-        <v>1850</v>
+        <v>6250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="Q331" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K332" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L332" t="n">
-        <v>3200</v>
+        <v>5500</v>
       </c>
       <c r="M332" t="n">
-        <v>3100</v>
+        <v>5250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="Q332" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>240</v>
+        <v>12000</v>
       </c>
       <c r="K333" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L333" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M333" t="n">
-        <v>2450</v>
+        <v>1850</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="Q333" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>46000</v>
+        <v>300</v>
       </c>
       <c r="K334" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="M334" t="n">
-        <v>1578</v>
+        <v>3100</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="Q334" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,36 +24473,36 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>16000</v>
+        <v>240</v>
       </c>
       <c r="K335" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L335" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M335" t="n">
-        <v>1650</v>
+        <v>2450</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q335" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>12000</v>
+        <v>46000</v>
       </c>
       <c r="K336" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L336" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M336" t="n">
-        <v>1450</v>
+        <v>1578</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q336" t="n">
         <v>10</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,36 +24617,36 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="K337" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="L337" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M337" t="n">
-        <v>3900</v>
+        <v>1650</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="Q337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,36 +24689,36 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K338" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L338" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="M338" t="n">
-        <v>3550</v>
+        <v>1450</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="K339" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L339" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M339" t="n">
-        <v>1920</v>
+        <v>3900</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="Q339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="K340" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="L340" t="n">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="M340" t="n">
-        <v>957</v>
+        <v>3550</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="Q340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="K341" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L341" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="M341" t="n">
-        <v>3100</v>
+        <v>1920</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Q341" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K342" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L342" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="M342" t="n">
-        <v>1850</v>
+        <v>957</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="Q342" t="n">
         <v>10</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -25049,36 +25049,36 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K343" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L343" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="M343" t="n">
-        <v>1550</v>
+        <v>3100</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="Q343" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,36 +25121,36 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>120</v>
+        <v>26000</v>
       </c>
       <c r="K344" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="L344" t="n">
-        <v>7000</v>
+        <v>1900</v>
       </c>
       <c r="M344" t="n">
-        <v>6750</v>
+        <v>1850</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="Q344" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -25193,36 +25193,36 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>80</v>
+        <v>16000</v>
       </c>
       <c r="K345" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L345" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="M345" t="n">
-        <v>5500</v>
+        <v>1550</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="Q345" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K346" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L346" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M346" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="Q346" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -25337,24 +25337,24 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K347" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L347" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M347" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q347" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K348" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L348" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M348" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K349" t="n">
         <v>3500</v>
       </c>
       <c r="L349" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M349" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q349" t="n">
         <v>15</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K350" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L350" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="M350" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -25632,13 +25632,13 @@
         <v>80</v>
       </c>
       <c r="K351" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L351" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M351" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,12 +25651,156 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
       </c>
       <c r="R351" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>7</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E352" t="n">
+        <v>16</v>
+      </c>
+      <c r="F352" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>160</v>
+      </c>
+      <c r="K352" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L352" t="n">
+        <v>3800</v>
+      </c>
+      <c r="M352" t="n">
+        <v>3650</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>15</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>7</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E353" t="n">
+        <v>16</v>
+      </c>
+      <c r="F353" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>80</v>
+      </c>
+      <c r="K353" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M353" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P353" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>15</v>
+      </c>
+      <c r="R353" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -10937,36 +10937,36 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>300</v>
+        <v>24000</v>
       </c>
       <c r="K147" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="L147" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="M147" t="n">
-        <v>3900</v>
+        <v>1250</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="Q147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K148" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L148" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M148" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q148" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L149" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M149" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="Q149" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L150" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M150" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="Q150" t="n">
         <v>15</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>120</v>
       </c>
       <c r="K151" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L151" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="M151" t="n">
-        <v>4250</v>
+        <v>3100</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="Q151" t="n">
         <v>15</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L152" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M152" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q152" t="n">
         <v>15</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>42000</v>
+        <v>120</v>
       </c>
       <c r="K153" t="n">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="L153" t="n">
-        <v>170</v>
+        <v>3500</v>
       </c>
       <c r="M153" t="n">
-        <v>161</v>
+        <v>3250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>23000</v>
+        <v>42000</v>
       </c>
       <c r="K154" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L154" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="M154" t="n">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J155" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K155" t="n">
+        <v>100</v>
+      </c>
+      <c r="L155" t="n">
         <v>120</v>
       </c>
-      <c r="K155" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5500</v>
-      </c>
       <c r="M155" t="n">
-        <v>5250</v>
+        <v>113</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="Q155" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L156" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M156" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Q156" t="n">
         <v>16</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -11657,11 +11657,11 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
         <v>4000</v>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Q157" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11736,17 +11736,17 @@
         <v>120</v>
       </c>
       <c r="K158" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L158" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M158" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q158" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L159" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="M159" t="n">
-        <v>3100</v>
+        <v>6250</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="Q159" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L160" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M160" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q160" t="n">
         <v>15</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J161" t="n">
         <v>120</v>
       </c>
       <c r="K161" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L161" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="M161" t="n">
-        <v>4250</v>
+        <v>2800</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L162" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M162" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q162" t="n">
         <v>15</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="K163" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L163" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M163" t="n">
-        <v>1642</v>
+        <v>3500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="Q163" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K164" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L164" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M164" t="n">
-        <v>1260</v>
+        <v>1642</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q164" t="n">
         <v>10</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="K165" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L165" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M165" t="n">
-        <v>1907</v>
+        <v>1260</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="Q165" t="n">
         <v>10</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="K166" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L166" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M166" t="n">
-        <v>1000</v>
+        <v>1907</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="Q166" t="n">
         <v>10</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="K167" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L167" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M167" t="n">
-        <v>1647</v>
+        <v>1000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="Q167" t="n">
         <v>10</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -12449,36 +12449,36 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K168" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="L168" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="M168" t="n">
-        <v>4250</v>
+        <v>1647</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="Q168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12525,20 +12525,20 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K169" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L169" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M169" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q169" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K170" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L170" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M170" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q170" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K171" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L171" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M171" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="Q171" t="n">
         <v>15</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L172" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M172" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J173" t="n">
         <v>120</v>
       </c>
       <c r="K173" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L173" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="M173" t="n">
-        <v>5650</v>
+        <v>4250</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="Q173" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -12881,24 +12881,24 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="L174" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M174" t="n">
-        <v>1950</v>
+        <v>5650</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="Q174" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="K175" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L175" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M175" t="n">
-        <v>1550</v>
+        <v>1950</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="Q175" t="n">
         <v>10</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -13025,24 +13025,24 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K176" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L176" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M176" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13101,20 +13101,20 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L177" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M177" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q177" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="L178" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M178" t="n">
-        <v>3800</v>
+        <v>5750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="Q178" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>5800</v>
+        <v>3600</v>
       </c>
       <c r="L179" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M179" t="n">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q179" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13313,24 +13313,24 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="L180" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M180" t="n">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q180" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K181" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L181" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M181" t="n">
-        <v>5250</v>
+        <v>3000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>120</v>
       </c>
       <c r="K182" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L182" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M182" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,24 +13529,24 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K183" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L183" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M183" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q183" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K184" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L184" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M184" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L185" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M185" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K186" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L186" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M186" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L187" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q187" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -13889,36 +13889,36 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>13200</v>
+        <v>120</v>
       </c>
       <c r="K188" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L188" t="n">
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="M188" t="n">
-        <v>1809</v>
+        <v>5750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="Q188" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="K189" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L189" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M189" t="n">
-        <v>1550</v>
+        <v>1809</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="Q189" t="n">
         <v>10</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -14033,36 +14033,36 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="K190" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L190" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="M190" t="n">
-        <v>3550</v>
+        <v>1550</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="Q190" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="L191" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M191" t="n">
-        <v>5350</v>
+        <v>3550</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Q191" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M192" t="n">
-        <v>2900</v>
+        <v>5350</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K193" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L193" t="n">
         <v>3000</v>
       </c>
-      <c r="L193" t="n">
-        <v>3500</v>
-      </c>
       <c r="M193" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Q193" t="n">
         <v>15</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K194" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L194" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M194" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L195" t="n">
         <v>2800</v>
       </c>
-      <c r="L195" t="n">
-        <v>3000</v>
-      </c>
       <c r="M195" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L196" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L197" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M197" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
         <v>120</v>
       </c>
       <c r="K198" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L198" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K199" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M199" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L200" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M200" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L201" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M201" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L202" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M202" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q202" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>32000</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L203" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M203" t="n">
-        <v>1750</v>
+        <v>2650</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q203" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="K204" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L204" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M204" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q204" t="n">
         <v>10</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="K205" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L205" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M205" t="n">
-        <v>1907</v>
+        <v>1500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="Q205" t="n">
         <v>10</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K206" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L206" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M206" t="n">
-        <v>1033</v>
+        <v>1907</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="Q206" t="n">
         <v>10</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="K207" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L207" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="M207" t="n">
-        <v>1750</v>
+        <v>1033</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="Q207" t="n">
         <v>10</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K208" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L208" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M208" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q208" t="n">
         <v>10</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -15401,36 +15401,36 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K209" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L209" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M209" t="n">
-        <v>3750</v>
+        <v>1450</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q209" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
         <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L210" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M210" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15545,36 +15545,36 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L211" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M211" t="n">
-        <v>1928</v>
+        <v>2900</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P211" t="n">
         <v>193</v>
       </c>
       <c r="Q211" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K212" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L212" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M212" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q212" t="n">
         <v>10</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="K213" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L213" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M213" t="n">
-        <v>3750</v>
+        <v>1454</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
         <v>120</v>
       </c>
       <c r="K214" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M214" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q214" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K215" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L215" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,36 +15905,36 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K216" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="L216" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M216" t="n">
-        <v>3350</v>
+        <v>6000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q216" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K217" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L217" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M217" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q217" t="n">
         <v>15</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K218" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L218" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M218" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16121,36 +16121,36 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K219" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L219" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M219" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q219" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K220" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L220" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M220" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q220" t="n">
         <v>10</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16265,36 +16265,36 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K221" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L221" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="M221" t="n">
-        <v>3650</v>
+        <v>1550</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K222" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L222" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M222" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M223" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q223" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K224" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L224" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M224" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="K225" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L225" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M225" t="n">
-        <v>1896</v>
+        <v>5500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q225" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K226" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L226" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M226" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q226" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K227" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L227" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M227" t="n">
-        <v>4250</v>
+        <v>7808</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
         <v>120</v>
       </c>
       <c r="K228" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L228" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M228" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K229" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L229" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M229" t="n">
-        <v>1896</v>
+        <v>3250</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16913,36 +16913,36 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K230" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L230" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M230" t="n">
-        <v>7250</v>
+        <v>1896</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q230" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16989,32 +16989,32 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>60000</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L231" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="M231" t="n">
-        <v>1617</v>
+        <v>7250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="Q231" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K232" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L232" t="n">
         <v>1700</v>
       </c>
-      <c r="L232" t="n">
-        <v>1800</v>
-      </c>
       <c r="M232" t="n">
-        <v>1750</v>
+        <v>1617</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Q232" t="n">
         <v>10</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="K233" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L233" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M233" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q233" t="n">
         <v>10</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K234" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L234" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M234" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L235" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M235" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17345,11 +17345,11 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
         <v>3000</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L237" t="n">
         <v>3500</v>
       </c>
-      <c r="L237" t="n">
-        <v>4000</v>
-      </c>
       <c r="M237" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K238" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L238" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M238" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L239" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M239" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
         <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L240" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M240" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>22000</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M241" t="n">
-        <v>1891</v>
+        <v>3250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K242" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L242" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M242" t="n">
-        <v>1447</v>
+        <v>1891</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q242" t="n">
         <v>10</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="K243" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L243" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M243" t="n">
-        <v>1055</v>
+        <v>1447</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q243" t="n">
         <v>10</v>
@@ -17921,36 +17921,36 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="K244" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="L244" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="M244" t="n">
-        <v>7800</v>
+        <v>1055</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="Q244" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -17993,36 +17993,36 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="K245" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="L245" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M245" t="n">
-        <v>1750</v>
+        <v>7800</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K246" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L246" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M246" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L247" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M247" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q247" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>42000</v>
+        <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="L248" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M248" t="n">
-        <v>1740</v>
+        <v>5750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="Q248" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>300</v>
+        <v>42000</v>
       </c>
       <c r="K249" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L249" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M249" t="n">
-        <v>2650</v>
+        <v>1740</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K250" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L250" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M250" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,36 +18425,36 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K251" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="L251" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M251" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K252" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L252" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M252" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q252" t="n">
         <v>10</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="K253" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L253" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M253" t="n">
-        <v>1888</v>
+        <v>1350</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="Q253" t="n">
         <v>10</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>32000</v>
       </c>
       <c r="K254" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L254" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M254" t="n">
-        <v>4250</v>
+        <v>1888</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18720,17 +18720,17 @@
         <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L255" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M255" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q255" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L256" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M256" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
         <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L257" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M257" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L258" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M258" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K259" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L259" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M259" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L260" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M260" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K261" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L261" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M261" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L262" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M262" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L263" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M263" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19368,17 +19368,17 @@
         <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L264" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M264" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q264" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L265" t="n">
         <v>5500</v>
       </c>
-      <c r="L265" t="n">
-        <v>6000</v>
-      </c>
       <c r="M265" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q265" t="n">
         <v>25</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K266" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L266" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M266" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="K267" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L267" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M267" t="n">
-        <v>1750</v>
+        <v>4500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q267" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="K268" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L268" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M268" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="K269" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="L269" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M269" t="n">
-        <v>4250</v>
+        <v>1450</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K270" t="n">
         <v>4000</v>
       </c>
       <c r="L270" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M270" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K271" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L271" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M271" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="Q271" t="n">
         <v>15</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L272" t="n">
         <v>3500</v>
       </c>
-      <c r="L272" t="n">
-        <v>3600</v>
-      </c>
       <c r="M272" t="n">
-        <v>3550</v>
+        <v>3250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K273" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L273" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M273" t="n">
-        <v>5250</v>
+        <v>3550</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Q273" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>34000</v>
+        <v>160</v>
       </c>
       <c r="K274" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L274" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M274" t="n">
-        <v>1894</v>
+        <v>5250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Q274" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>600</v>
+        <v>34000</v>
       </c>
       <c r="K275" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L275" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M275" t="n">
-        <v>3550</v>
+        <v>1894</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K276" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L276" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M276" t="n">
-        <v>2800</v>
+        <v>3550</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1220</v>
+        <v>150</v>
       </c>
       <c r="K277" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L277" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="M277" t="n">
-        <v>3650</v>
+        <v>2800</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20373,20 +20373,20 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>160</v>
+        <v>1220</v>
       </c>
       <c r="K278" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L278" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="M278" t="n">
-        <v>5750</v>
+        <v>3650</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="Q278" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L279" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M279" t="n">
-        <v>3000</v>
+        <v>5750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="K280" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L280" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M280" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20542,7 +20542,7 @@
         <v>200</v>
       </c>
       <c r="Q280" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K281" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L281" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M281" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L282" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M282" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="K283" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L283" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M283" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q283" t="n">
         <v>10</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -20801,36 +20801,36 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K284" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="L284" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M284" t="n">
-        <v>3900</v>
+        <v>1450</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20880,17 +20880,17 @@
         <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L285" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M285" t="n">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="Q285" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L286" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="M286" t="n">
-        <v>3250</v>
+        <v>5100</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L287" t="n">
         <v>3500</v>
       </c>
-      <c r="L287" t="n">
-        <v>3800</v>
-      </c>
       <c r="M287" t="n">
-        <v>3650</v>
+        <v>3250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K288" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L288" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M288" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L289" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M289" t="n">
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q289" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L290" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M290" t="n">
-        <v>1904</v>
+        <v>6250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="K291" t="n">
         <v>1800</v>
@@ -21318,7 +21318,7 @@
         <v>2000</v>
       </c>
       <c r="M291" t="n">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q291" t="n">
         <v>10</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K292" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L292" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M292" t="n">
-        <v>1400</v>
+        <v>1908</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q292" t="n">
         <v>10</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K293" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L293" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M293" t="n">
-        <v>945</v>
+        <v>1400</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Q293" t="n">
         <v>10</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>11000</v>
       </c>
       <c r="K294" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="L294" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M294" t="n">
-        <v>4250</v>
+        <v>945</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K295" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L295" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M295" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -21665,36 +21665,36 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>18000</v>
+        <v>80</v>
       </c>
       <c r="K296" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L296" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M296" t="n">
-        <v>1350</v>
+        <v>3500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="Q296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K297" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="L297" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M297" t="n">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="Q297" t="n">
         <v>10</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -21809,36 +21809,36 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K298" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="L298" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="M298" t="n">
-        <v>2900</v>
+        <v>1150</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="Q298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K299" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L299" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M299" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K300" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L300" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M300" t="n">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
         <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L301" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M301" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L303" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M303" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K304" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M304" t="n">
-        <v>5773</v>
+        <v>3500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="Q304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K305" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L305" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M305" t="n">
-        <v>9278</v>
+        <v>5773</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="Q305" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K306" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L306" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="M306" t="n">
-        <v>4250</v>
+        <v>9278</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
         <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L307" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M307" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L308" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M308" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22608,13 +22608,13 @@
         <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L309" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M309" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K310" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L310" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M310" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>24000</v>
+        <v>60</v>
       </c>
       <c r="K311" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="L311" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M311" t="n">
-        <v>1950</v>
+        <v>3500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K312" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L312" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M312" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K313" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L313" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M313" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,11 +22961,11 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
         <v>3500</v>
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L315" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M315" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23062,7 +23062,7 @@
         <v>250</v>
       </c>
       <c r="Q315" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -23112,17 +23112,17 @@
         <v>120</v>
       </c>
       <c r="K316" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K317" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L317" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M317" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>38000</v>
+        <v>80</v>
       </c>
       <c r="K318" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L318" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M318" t="n">
-        <v>1916</v>
+        <v>3500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="Q318" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>120</v>
+        <v>38000</v>
       </c>
       <c r="K319" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L319" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M319" t="n">
-        <v>5250</v>
+        <v>1916</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J320" t="n">
         <v>120</v>
       </c>
       <c r="K320" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L320" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M320" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L321" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M321" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J322" t="n">
         <v>160</v>
       </c>
       <c r="K322" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L322" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M322" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K323" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L323" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M323" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K324" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L324" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M324" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L325" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M325" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K326" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L326" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M326" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K327" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L327" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M327" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23976,13 +23976,13 @@
         <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L328" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M328" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K329" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M329" t="n">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K330" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L330" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M330" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K331" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L331" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M331" t="n">
-        <v>6250</v>
+        <v>2900</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q331" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J332" t="n">
         <v>120</v>
       </c>
       <c r="K332" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L332" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M332" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q332" t="n">
         <v>25</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L333" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="M333" t="n">
-        <v>1850</v>
+        <v>5250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q333" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K334" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L334" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M334" t="n">
-        <v>3100</v>
+        <v>1850</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q334" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K335" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L335" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M335" t="n">
-        <v>2450</v>
+        <v>3100</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q335" t="n">
         <v>16</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>46000</v>
+        <v>240</v>
       </c>
       <c r="K336" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L336" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M336" t="n">
-        <v>1578</v>
+        <v>2450</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q336" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>16000</v>
+        <v>46000</v>
       </c>
       <c r="K337" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L337" t="n">
         <v>1700</v>
       </c>
       <c r="M337" t="n">
-        <v>1650</v>
+        <v>1578</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q337" t="n">
         <v>10</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K338" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L338" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M338" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q338" t="n">
         <v>10</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -24761,36 +24761,36 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K339" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="L339" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M339" t="n">
-        <v>3900</v>
+        <v>1450</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K340" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L340" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="M340" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q340" t="n">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K341" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L341" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="M341" t="n">
-        <v>1920</v>
+        <v>3550</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="Q341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K342" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L342" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M342" t="n">
-        <v>957</v>
+        <v>1920</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q342" t="n">
         <v>10</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="K343" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="L343" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="M343" t="n">
-        <v>3100</v>
+        <v>957</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,36 +25121,36 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>26000</v>
+        <v>300</v>
       </c>
       <c r="K344" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L344" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M344" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q344" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K345" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L345" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M345" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q345" t="n">
         <v>10</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -25265,36 +25265,36 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K346" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L346" t="n">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="M346" t="n">
-        <v>6750</v>
+        <v>1550</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="Q346" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K347" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L347" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M347" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q347" t="n">
         <v>25</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -25409,24 +25409,24 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K348" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L348" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M348" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>317</v>
+        <v>220</v>
       </c>
       <c r="Q348" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K349" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L349" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M349" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q349" t="n">
         <v>15</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J350" t="n">
         <v>120</v>
       </c>
       <c r="K350" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L350" t="n">
         <v>4000</v>
       </c>
-      <c r="L350" t="n">
-        <v>4500</v>
-      </c>
       <c r="M350" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K351" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L351" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M351" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E352" t="n">
         <v>16</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K352" t="n">
         <v>3500</v>
       </c>
       <c r="L352" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M352" t="n">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q352" t="n">
         <v>15</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K353" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L353" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M353" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,12 +25795,84 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
       </c>
       <c r="R353" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>7</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E354" t="n">
+        <v>16</v>
+      </c>
+      <c r="F354" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>80</v>
+      </c>
+      <c r="K354" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M354" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>15</v>
+      </c>
+      <c r="R354" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -11585,36 +11585,36 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K156" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="L156" t="n">
-        <v>5500</v>
+        <v>1400</v>
       </c>
       <c r="M156" t="n">
-        <v>5250</v>
+        <v>1350</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="Q156" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K157" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L157" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M157" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Q157" t="n">
         <v>16</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -11729,11 +11729,11 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K158" t="n">
         <v>4000</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Q158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11808,17 +11808,17 @@
         <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L159" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M159" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q159" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K160" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L160" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="M160" t="n">
-        <v>3100</v>
+        <v>6250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="Q160" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K161" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L161" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M161" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J162" t="n">
         <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L162" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="M162" t="n">
-        <v>4250</v>
+        <v>2800</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="Q162" t="n">
         <v>15</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K163" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L163" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M163" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q163" t="n">
         <v>15</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="K164" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L164" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M164" t="n">
-        <v>1642</v>
+        <v>3500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="Q164" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K165" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L165" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M165" t="n">
-        <v>1260</v>
+        <v>1642</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q165" t="n">
         <v>10</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="K166" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L166" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M166" t="n">
-        <v>1907</v>
+        <v>1260</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="Q166" t="n">
         <v>10</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="K167" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L167" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M167" t="n">
-        <v>1000</v>
+        <v>1907</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="Q167" t="n">
         <v>10</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="K168" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L168" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M168" t="n">
-        <v>1647</v>
+        <v>1000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="Q168" t="n">
         <v>10</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -12521,36 +12521,36 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>120</v>
+        <v>34000</v>
       </c>
       <c r="K169" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="L169" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="M169" t="n">
-        <v>4250</v>
+        <v>1647</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="Q169" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12597,20 +12597,20 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K170" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L170" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M170" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q170" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K171" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L171" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M171" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q171" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K172" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L172" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M172" t="n">
-        <v>5250</v>
+        <v>3500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L173" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M173" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q173" t="n">
         <v>15</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -12881,24 +12881,24 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>120</v>
       </c>
       <c r="K174" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L174" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="M174" t="n">
-        <v>5650</v>
+        <v>4250</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="Q174" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>28000</v>
+        <v>120</v>
       </c>
       <c r="K175" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="L175" t="n">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="M175" t="n">
-        <v>1950</v>
+        <v>5650</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="Q175" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="K176" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L176" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M176" t="n">
-        <v>1550</v>
+        <v>1950</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="Q176" t="n">
         <v>10</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -13097,24 +13097,24 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K177" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L177" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M177" t="n">
-        <v>3900</v>
+        <v>1550</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="Q177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L178" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M178" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q178" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K179" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="L179" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M179" t="n">
-        <v>3800</v>
+        <v>5750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>5800</v>
+        <v>3600</v>
       </c>
       <c r="L180" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M180" t="n">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q180" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="L181" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M181" t="n">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q181" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K182" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L182" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M182" t="n">
-        <v>5250</v>
+        <v>3000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
         <v>120</v>
       </c>
       <c r="K183" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L183" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M183" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L184" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M184" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q184" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K185" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L185" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M185" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q185" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L186" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M186" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K187" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M187" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q187" t="n">
         <v>15</v>
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L188" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M188" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q188" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -13961,36 +13961,36 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>13200</v>
+        <v>120</v>
       </c>
       <c r="K189" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L189" t="n">
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="M189" t="n">
-        <v>1809</v>
+        <v>5750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="Q189" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="K190" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L190" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M190" t="n">
-        <v>1550</v>
+        <v>1809</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="Q190" t="n">
         <v>10</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -14105,36 +14105,36 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L191" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="M191" t="n">
-        <v>3550</v>
+        <v>1550</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14181,20 +14181,20 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M192" t="n">
-        <v>5350</v>
+        <v>3550</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Q192" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="L193" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M193" t="n">
-        <v>2900</v>
+        <v>5350</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q193" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K194" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L194" t="n">
         <v>3000</v>
       </c>
-      <c r="L194" t="n">
-        <v>3500</v>
-      </c>
       <c r="M194" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K195" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M195" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L196" t="n">
         <v>2800</v>
       </c>
-      <c r="L196" t="n">
-        <v>3000</v>
-      </c>
       <c r="M196" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K197" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L197" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M197" t="n">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L198" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M198" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>120</v>
       </c>
       <c r="K199" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L199" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M199" t="n">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L200" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M200" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K201" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L201" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M201" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14901,20 +14901,20 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K202" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L202" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M202" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q202" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L203" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M203" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q203" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>32000</v>
+        <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L204" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M204" t="n">
-        <v>1750</v>
+        <v>2650</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="K205" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L205" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M205" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q205" t="n">
         <v>10</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="K206" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L206" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M206" t="n">
-        <v>1907</v>
+        <v>1500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="Q206" t="n">
         <v>10</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K207" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L207" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M207" t="n">
-        <v>1033</v>
+        <v>1907</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="Q207" t="n">
         <v>10</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="K208" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L208" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="M208" t="n">
-        <v>1750</v>
+        <v>1033</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="Q208" t="n">
         <v>10</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K209" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L209" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M209" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q209" t="n">
         <v>10</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -15473,36 +15473,36 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K210" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L210" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M210" t="n">
-        <v>3750</v>
+        <v>1450</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q210" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
         <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L211" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M211" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q211" t="n">
         <v>15</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -15617,36 +15617,36 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K212" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L212" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M212" t="n">
-        <v>1928</v>
+        <v>2900</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P212" t="n">
         <v>193</v>
       </c>
       <c r="Q212" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K213" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L213" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M213" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q213" t="n">
         <v>10</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="K214" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L214" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M214" t="n">
-        <v>3750</v>
+        <v>1454</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
         <v>120</v>
       </c>
       <c r="K215" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M215" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q215" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L216" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M216" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -15977,36 +15977,36 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K217" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="L217" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M217" t="n">
-        <v>3350</v>
+        <v>6000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L218" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M218" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K219" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L219" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M219" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,36 +16193,36 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L220" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M220" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q220" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K221" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L221" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M221" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q221" t="n">
         <v>10</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -16337,36 +16337,36 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K222" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L222" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="M222" t="n">
-        <v>3650</v>
+        <v>1550</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="Q222" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K223" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L223" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M223" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q223" t="n">
         <v>15</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -16481,24 +16481,24 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K224" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L224" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M224" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q224" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K225" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L225" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="K226" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L226" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M226" t="n">
-        <v>1896</v>
+        <v>5500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q226" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K227" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L227" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M227" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q227" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K228" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L228" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M228" t="n">
-        <v>4250</v>
+        <v>7808</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="Q228" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
         <v>120</v>
       </c>
       <c r="K229" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L229" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M229" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L230" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M230" t="n">
-        <v>1896</v>
+        <v>3250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16985,36 +16985,36 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K231" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L231" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M231" t="n">
-        <v>7250</v>
+        <v>1896</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q231" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17061,32 +17061,32 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>60000</v>
+        <v>120</v>
       </c>
       <c r="K232" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L232" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="M232" t="n">
-        <v>1617</v>
+        <v>7250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K233" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L233" t="n">
         <v>1700</v>
       </c>
-      <c r="L233" t="n">
-        <v>1800</v>
-      </c>
       <c r="M233" t="n">
-        <v>1750</v>
+        <v>1617</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Q233" t="n">
         <v>10</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="K234" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L234" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M234" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K235" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L235" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M235" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L236" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M236" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -17417,11 +17417,11 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
         <v>3000</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L238" t="n">
         <v>3500</v>
       </c>
-      <c r="L238" t="n">
-        <v>4000</v>
-      </c>
       <c r="M238" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K239" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L239" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M239" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L240" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M240" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
         <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L241" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M241" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>22000</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L242" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M242" t="n">
-        <v>1891</v>
+        <v>3250</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Q242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K243" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L243" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M243" t="n">
-        <v>1447</v>
+        <v>1891</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q243" t="n">
         <v>10</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="K244" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L244" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M244" t="n">
-        <v>1055</v>
+        <v>1447</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17993,36 +17993,36 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="K245" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="L245" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="M245" t="n">
-        <v>7800</v>
+        <v>1055</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="Q245" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="K246" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="L246" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M246" t="n">
-        <v>1750</v>
+        <v>7800</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K247" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L247" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M247" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L248" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M248" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q248" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>42000</v>
+        <v>120</v>
       </c>
       <c r="K249" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="L249" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M249" t="n">
-        <v>1740</v>
+        <v>5750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>300</v>
+        <v>42000</v>
       </c>
       <c r="K250" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L250" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M250" t="n">
-        <v>2650</v>
+        <v>1740</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K251" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L251" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M251" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -18497,36 +18497,36 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="L252" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M252" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K253" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L253" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M253" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q253" t="n">
         <v>10</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="K254" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L254" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M254" t="n">
-        <v>1888</v>
+        <v>1350</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="Q254" t="n">
         <v>10</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>120</v>
+        <v>32000</v>
       </c>
       <c r="K255" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L255" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M255" t="n">
-        <v>4250</v>
+        <v>1888</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18792,17 +18792,17 @@
         <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L256" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M256" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q256" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
         <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L257" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M257" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
         <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L258" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M258" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K259" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L259" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M259" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K260" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L260" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M260" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L261" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M261" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K262" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L262" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M262" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K263" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L263" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M263" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L264" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M264" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19440,17 +19440,17 @@
         <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M265" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="Q265" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L266" t="n">
         <v>5500</v>
       </c>
-      <c r="L266" t="n">
-        <v>6000</v>
-      </c>
       <c r="M266" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q266" t="n">
         <v>25</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K267" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L267" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M267" t="n">
-        <v>4500</v>
+        <v>5750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q267" t="n">
         <v>25</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
-        <v>1700</v>
+        <v>4500</v>
       </c>
       <c r="L268" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M268" t="n">
-        <v>1750</v>
+        <v>4500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="K269" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L269" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M269" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q269" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="K270" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="L270" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="M270" t="n">
-        <v>4250</v>
+        <v>1450</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="Q270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
         <v>4000</v>
       </c>
       <c r="L271" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M271" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q271" t="n">
         <v>15</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K272" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L272" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M272" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K273" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L273" t="n">
         <v>3500</v>
       </c>
-      <c r="L273" t="n">
-        <v>3600</v>
-      </c>
       <c r="M273" t="n">
-        <v>3550</v>
+        <v>3250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="Q273" t="n">
         <v>15</v>
@@ -20085,20 +20085,20 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K274" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L274" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M274" t="n">
-        <v>5250</v>
+        <v>3550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Q274" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>34000</v>
+        <v>160</v>
       </c>
       <c r="K275" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L275" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M275" t="n">
-        <v>1894</v>
+        <v>5250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>600</v>
+        <v>34000</v>
       </c>
       <c r="K276" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L276" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M276" t="n">
-        <v>3550</v>
+        <v>1894</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K277" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L277" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M277" t="n">
-        <v>2800</v>
+        <v>3550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1220</v>
+        <v>150</v>
       </c>
       <c r="K278" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L278" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="M278" t="n">
-        <v>3650</v>
+        <v>2800</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>160</v>
+        <v>1220</v>
       </c>
       <c r="K279" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L279" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="M279" t="n">
-        <v>5750</v>
+        <v>3650</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="Q279" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="K280" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L280" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M280" t="n">
-        <v>3000</v>
+        <v>5750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20589,20 +20589,20 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="K281" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L281" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M281" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20614,7 +20614,7 @@
         <v>200</v>
       </c>
       <c r="Q281" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K282" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L282" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M282" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -20729,24 +20729,24 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>16000</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L283" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M283" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="K284" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L284" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M284" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q284" t="n">
         <v>10</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -20873,36 +20873,36 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>8000</v>
       </c>
       <c r="K285" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="L285" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M285" t="n">
-        <v>3900</v>
+        <v>1450</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="Q285" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20952,17 +20952,17 @@
         <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L286" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="M286" t="n">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="Q286" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L287" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="M287" t="n">
-        <v>3250</v>
+        <v>5100</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K288" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L288" t="n">
         <v>3500</v>
       </c>
-      <c r="L288" t="n">
-        <v>3800</v>
-      </c>
       <c r="M288" t="n">
-        <v>3650</v>
+        <v>3250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L289" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M289" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K290" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M290" t="n">
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q290" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K291" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L291" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M291" t="n">
-        <v>1904</v>
+        <v>6250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q291" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="K292" t="n">
         <v>1800</v>
@@ -21390,7 +21390,7 @@
         <v>2000</v>
       </c>
       <c r="M292" t="n">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q292" t="n">
         <v>10</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K293" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L293" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M293" t="n">
-        <v>1400</v>
+        <v>1908</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="Q293" t="n">
         <v>10</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K294" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L294" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M294" t="n">
-        <v>945</v>
+        <v>1400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Q294" t="n">
         <v>10</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>11000</v>
       </c>
       <c r="K295" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="L295" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M295" t="n">
-        <v>4250</v>
+        <v>945</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L296" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M296" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -21737,36 +21737,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>18000</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L297" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M297" t="n">
-        <v>1350</v>
+        <v>3500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K298" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="L298" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M298" t="n">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="Q298" t="n">
         <v>10</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -21881,36 +21881,36 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K299" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="L299" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="M299" t="n">
-        <v>2900</v>
+        <v>1150</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K300" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L300" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M300" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K301" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L301" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M301" t="n">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
         <v>120</v>
       </c>
       <c r="K302" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L303" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M303" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K304" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L304" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M304" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K305" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L305" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M305" t="n">
-        <v>5773</v>
+        <v>3500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="Q305" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K306" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L306" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>9278</v>
+        <v>5773</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="Q306" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K307" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L307" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="M307" t="n">
-        <v>4250</v>
+        <v>9278</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L308" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M308" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
         <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L309" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M309" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -22680,13 +22680,13 @@
         <v>120</v>
       </c>
       <c r="K310" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L311" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M311" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>24000</v>
+        <v>60</v>
       </c>
       <c r="K312" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="L312" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M312" t="n">
-        <v>1950</v>
+        <v>3500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="K313" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L313" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M313" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q313" t="n">
         <v>10</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="K314" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L314" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M314" t="n">
-        <v>3750</v>
+        <v>1650</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Q314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -23033,11 +23033,11 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
         <v>3500</v>
@@ -23109,20 +23109,20 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K316" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L316" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M316" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23134,7 +23134,7 @@
         <v>250</v>
       </c>
       <c r="Q316" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -23184,17 +23184,17 @@
         <v>120</v>
       </c>
       <c r="K317" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L317" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M317" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K318" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L318" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M318" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>38000</v>
+        <v>80</v>
       </c>
       <c r="K319" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L319" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M319" t="n">
-        <v>1916</v>
+        <v>3500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>120</v>
+        <v>38000</v>
       </c>
       <c r="K320" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L320" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M320" t="n">
-        <v>5250</v>
+        <v>1916</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J321" t="n">
         <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L321" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M321" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L322" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M322" t="n">
-        <v>3900</v>
+        <v>4250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
         <v>160</v>
       </c>
       <c r="K323" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L323" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M323" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K324" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L324" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M324" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K325" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L325" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M325" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K326" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L326" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M326" t="n">
-        <v>4250</v>
+        <v>2900</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K327" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M327" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K328" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L328" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M328" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -24048,13 +24048,13 @@
         <v>160</v>
       </c>
       <c r="K329" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L329" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M329" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K330" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L330" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M330" t="n">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K331" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L331" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M331" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L332" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>2900</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="Q332" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J333" t="n">
         <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L333" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M333" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q333" t="n">
         <v>25</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="K334" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="L334" t="n">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="M334" t="n">
-        <v>1850</v>
+        <v>5250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q334" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K335" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L335" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M335" t="n">
-        <v>3100</v>
+        <v>1850</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q335" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K336" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L336" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M336" t="n">
-        <v>2450</v>
+        <v>3100</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q336" t="n">
         <v>16</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>46000</v>
+        <v>240</v>
       </c>
       <c r="K337" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L337" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M337" t="n">
-        <v>1578</v>
+        <v>2450</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q337" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>16000</v>
+        <v>46000</v>
       </c>
       <c r="K338" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L338" t="n">
         <v>1700</v>
       </c>
       <c r="M338" t="n">
-        <v>1650</v>
+        <v>1578</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q338" t="n">
         <v>10</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K339" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L339" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M339" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q339" t="n">
         <v>10</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -24833,36 +24833,36 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="K340" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="L340" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M340" t="n">
-        <v>3900</v>
+        <v>1450</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="Q340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K341" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L341" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="M341" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>25000</v>
+        <v>160</v>
       </c>
       <c r="K342" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L342" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="M342" t="n">
-        <v>1920</v>
+        <v>3550</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="Q342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K343" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L343" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M343" t="n">
-        <v>957</v>
+        <v>1920</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q343" t="n">
         <v>10</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="K344" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="L344" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="M344" t="n">
-        <v>3100</v>
+        <v>957</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -25193,36 +25193,36 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>26000</v>
+        <v>300</v>
       </c>
       <c r="K345" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L345" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M345" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K346" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L346" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M346" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q346" t="n">
         <v>10</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -25337,36 +25337,36 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K347" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L347" t="n">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="M347" t="n">
-        <v>6750</v>
+        <v>1550</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="Q347" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K348" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L348" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M348" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q348" t="n">
         <v>25</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K349" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L349" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M349" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>317</v>
+        <v>220</v>
       </c>
       <c r="Q349" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K350" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L350" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M350" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J351" t="n">
         <v>120</v>
       </c>
       <c r="K351" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L351" t="n">
         <v>4000</v>
       </c>
-      <c r="L351" t="n">
-        <v>4500</v>
-      </c>
       <c r="M351" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K352" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L352" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M352" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q352" t="n">
         <v>15</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E353" t="n">
         <v>16</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K353" t="n">
         <v>3500</v>
       </c>
       <c r="L353" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M353" t="n">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K354" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L354" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M354" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,12 +25867,84 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q354" t="n">
         <v>15</v>
       </c>
       <c r="R354" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>7</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E355" t="n">
+        <v>16</v>
+      </c>
+      <c r="F355" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>80</v>
+      </c>
+      <c r="K355" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L355" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M355" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>15</v>
+      </c>
+      <c r="R355" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal Hortofrutícola Agro Chillán - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K178" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="L178" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="M178" t="n">
-        <v>3900</v>
+        <v>1250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="Q178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L179" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M179" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q179" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="L180" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M180" t="n">
-        <v>3800</v>
+        <v>5750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="Q180" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13389,20 +13389,20 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K181" t="n">
-        <v>5800</v>
+        <v>3600</v>
       </c>
       <c r="L181" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M181" t="n">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q181" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="L182" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M182" t="n">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q182" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K183" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>5250</v>
+        <v>3000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L184" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M184" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q184" t="n">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="K185" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L185" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="M185" t="n">
-        <v>1750</v>
+        <v>4250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="Q185" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -13745,24 +13745,24 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K186" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L186" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M186" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q186" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L187" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M187" t="n">
-        <v>3500</v>
+        <v>4250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="Q187" t="n">
         <v>15</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K188" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L188" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M188" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="Q188" t="n">
         <v>15</v>
@@ -13965,20 +13965,20 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="L189" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>5750</v>
+        <v>3900</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q189" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -14033,36 +14033,36 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>13200</v>
+        <v>120</v>
       </c>
       <c r="K190" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L190" t="n">
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="M190" t="n">
-        <v>1809</v>
+        <v>5750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>20000</v>
+        <v>13200</v>
       </c>
       <c r="K191" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L191" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M191" t="n">
-        <v>1550</v>
+        <v>1809</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="Q191" t="n">
         <v>10</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -14177,36 +14177,36 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="K192" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L192" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="M192" t="n">
-        <v>3550</v>
+        <v>1550</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14253,20 +14253,20 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K193" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="L193" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="M193" t="n">
-        <v>5350</v>
+        <v>3550</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Q193" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14321,24 +14321,24 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="L194" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M194" t="n">
-        <v>2900</v>
+        <v>5350</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q194" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K195" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L195" t="n">
         <v>3000</v>
       </c>
-      <c r="L195" t="n">
-        <v>3500</v>
-      </c>
       <c r="M195" t="n">
-        <v>3250</v>
+        <v>2900</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L196" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M196" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L197" t="n">
         <v>2800</v>
       </c>
-      <c r="L197" t="n">
-        <v>3000</v>
-      </c>
       <c r="M197" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L198" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q199" t="n">
         <v>15</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L200" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M200" t="n">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L201" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M201" t="n">
-        <v>3900</v>
+        <v>4750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L202" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M202" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K203" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="M203" t="n">
-        <v>5100</v>
+        <v>3250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q203" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15041,24 +15041,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L204" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="M204" t="n">
-        <v>2650</v>
+        <v>5100</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>32000</v>
+        <v>300</v>
       </c>
       <c r="K205" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L205" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M205" t="n">
-        <v>1750</v>
+        <v>2650</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="K206" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L206" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M206" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q206" t="n">
         <v>10</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="K207" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L207" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M207" t="n">
-        <v>1907</v>
+        <v>1500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="Q207" t="n">
         <v>10</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="K208" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L208" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="M208" t="n">
-        <v>1033</v>
+        <v>1907</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="Q208" t="n">
         <v>10</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="K209" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L209" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="M209" t="n">
-        <v>1750</v>
+        <v>1033</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="Q209" t="n">
         <v>10</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K210" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L210" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M210" t="n">
-        <v>1450</v>
+        <v>1750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q210" t="n">
         <v>10</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -15545,36 +15545,36 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="K211" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L211" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M211" t="n">
-        <v>3750</v>
+        <v>1450</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
         <v>120</v>
       </c>
       <c r="K212" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L212" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M212" t="n">
-        <v>2900</v>
+        <v>3750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -15689,36 +15689,36 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L213" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M213" t="n">
-        <v>1928</v>
+        <v>2900</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P213" t="n">
         <v>193</v>
       </c>
       <c r="Q213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K214" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L214" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M214" t="n">
-        <v>1454</v>
+        <v>1928</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q214" t="n">
         <v>10</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="K215" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L215" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M215" t="n">
-        <v>3750</v>
+        <v>1454</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="Q215" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
         <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L216" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M216" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q216" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K217" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -16049,36 +16049,36 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K218" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="L218" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M218" t="n">
-        <v>3350</v>
+        <v>6000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q218" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K219" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L219" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M219" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K220" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L220" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M220" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Q220" t="n">
         <v>15</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -16265,36 +16265,36 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="K221" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L221" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M221" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q221" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="K222" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L222" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M222" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="Q222" t="n">
         <v>10</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -16409,36 +16409,36 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="K223" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L223" t="n">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="M223" t="n">
-        <v>3650</v>
+        <v>1550</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="Q223" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K224" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L224" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M224" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q224" t="n">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K225" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L225" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M225" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q225" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K226" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L226" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M226" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="K227" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="L227" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M227" t="n">
-        <v>1896</v>
+        <v>5500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q227" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>130</v>
+        <v>25000</v>
       </c>
       <c r="K228" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M228" t="n">
-        <v>7808</v>
+        <v>1896</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="Q228" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -16841,36 +16841,36 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K229" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L229" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M229" t="n">
-        <v>4250</v>
+        <v>7808</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="Q229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
         <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L230" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M230" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q230" t="n">
         <v>15</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25000</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L231" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M231" t="n">
-        <v>1896</v>
+        <v>3250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="Q231" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -17057,36 +17057,36 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>25000</v>
       </c>
       <c r="K232" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L232" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M232" t="n">
-        <v>7250</v>
+        <v>1896</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q232" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -17133,32 +17133,32 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>60000</v>
+        <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L233" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="M233" t="n">
-        <v>1617</v>
+        <v>7250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Diguillín</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="Q233" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K234" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L234" t="n">
         <v>1700</v>
       </c>
-      <c r="L234" t="n">
-        <v>1800</v>
-      </c>
       <c r="M234" t="n">
-        <v>1750</v>
+        <v>1617</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Diguillín</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="K235" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L235" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M235" t="n">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q235" t="n">
         <v>10</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K236" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L236" t="n">
-        <v>4500</v>
+        <v>1600</v>
       </c>
       <c r="M236" t="n">
-        <v>4250</v>
+        <v>1550</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L237" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M237" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q237" t="n">
         <v>15</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -17489,11 +17489,11 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
         <v>3000</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K239" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L239" t="n">
         <v>3500</v>
       </c>
-      <c r="L239" t="n">
-        <v>4000</v>
-      </c>
       <c r="M239" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K240" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L240" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M240" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K241" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M241" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
         <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L242" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M242" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>22000</v>
+        <v>160</v>
       </c>
       <c r="K243" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L243" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M243" t="n">
-        <v>1891</v>
+        <v>3250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K244" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L244" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M244" t="n">
-        <v>1447</v>
+        <v>1891</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="K245" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L245" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M245" t="n">
-        <v>1055</v>
+        <v>1447</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q245" t="n">
         <v>10</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="K246" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="L246" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="M246" t="n">
-        <v>7800</v>
+        <v>1055</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="Q246" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -18137,36 +18137,36 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="K247" t="n">
-        <v>1700</v>
+        <v>7500</v>
       </c>
       <c r="L247" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="M247" t="n">
-        <v>1750</v>
+        <v>7800</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="K248" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="L248" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M248" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 10 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L249" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M249" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q249" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>42000</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="L250" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M250" t="n">
-        <v>1740</v>
+        <v>5750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/paquete 10 unidades (volumen en unidades)</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="Q250" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>300</v>
+        <v>42000</v>
       </c>
       <c r="K251" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L251" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M251" t="n">
-        <v>2650</v>
+        <v>1740</v>
       </c>
       <c r="N251" t="inlineStr">
    